--- a/data/hotels_by_city/Houston/Houston_shard_570.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_570.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d1878577-Reviews-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
   </si>
   <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Sleep-Inn-Suites-Bush-Intercontinental-IAH-East.h3697662.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1945 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r578991207-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>1878577</t>
+  </si>
+  <si>
+    <t>578991207</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Fair lodgings for the $</t>
+  </si>
+  <si>
+    <t>My expectations weren’t high when I booked. All I wanted was a clean bed, bathroom and Airport Shuttle.To that extent I have no complaints as I was not expecting a 4 Star property.Bedding was good, generous sized room and a functional bathroom. Shuttle was 25 minutes wait at IAH, but only a short journey to the Hotel. Breakfast serving were adequate . Couple of food outlets just outside.For what I paid I have no complaints.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r573715025-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>573715025</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Stinky!!</t>
+  </si>
+  <si>
+    <t>We've stayed here 3 or 4 times and it has always been acceptable.  When I opened the room door on Rm 209 this last stay the smell hit me in the face.  The AC unit smelled so moldy and gross we turned it completely off.  Fortunately, it was a very cool evening and we were fine without it.  I should have asked for another room but simply didn't think of it.  Even with the unit off it stank terribly when you walked in the room.  Maybe they need to have their units cleaned and serviced.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r570364762-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>570364762</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>GREAT ALTERNATIVE FOR A GOOD MODERATE PRICED HOTEL</t>
+  </si>
+  <si>
+    <t>The staff has been improving since our last trip and the place appears to be a very well run, far cheaper alternative to the luxury hotels available at the airport.  There are some really sleazy similar priced and cheaper options that you should avoid despite their appearance and popular franchise names.  I know; I have tried some of them.  However, if you are not an early riser, be sure to ask for the room that is not on the side of a dog kennel.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r567300071-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>567300071</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Very Comfortable Rooms</t>
+  </si>
+  <si>
+    <t>The airport shuttle took ages to arrive. But the Hotel was fine. Good service, clean, comfortable rooms at a good price. The free breakfast buffet was pretty standard. Edible but just barely. We slept very well in their comfy bed and to me that is most important.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r560151500-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>560151500</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>very good 2 star airport hotel</t>
+  </si>
+  <si>
+    <t>I dunno why someone said this place was above a 4 star hotel like omni. But omni sucks so that no surprise. But come on, this place has a price list in the bathroom for cost of missing towels, floor mats, etc. This is a standard 2 star airport hotel. Shuttle was no drama but I also came in at last domestic flight at 0030, and I called saying my bags were in hand while still waiting for them, so when bags came down the shuttle rolled up 5 mins later. The shuttle is outsourced, not that anything is wrong with that (it isn’t) but it seems people’s expectations a bit high. I’d imagine if you coming in during flight primetime (1500-2100), you will get waits. But ya if I had to wait 30 mins I’d probably be perturbed too. Whatever.
+My room was on 2fl facing a dog kennel. If you didn’t run air on auto, you will hear them dogs hustling around 0700. It’s nothing bad and I’m a deep sleeper but it’ll probably bug some of yall. I mean they leave ear plugs on the night stand which I guess is the best they can do.
+When it comes to 2 star hotels you cannot judge the room based on aesthetic, scuffs on wall, tv picture quality, etc. My metrics are fresh towels and sheets, and this place exceeded that. The gym didn’t have free weights which...I dunno why someone said this place was above a 4 star hotel like omni. But omni sucks so that no surprise. But come on, this place has a price list in the bathroom for cost of missing towels, floor mats, etc. This is a standard 2 star airport hotel. Shuttle was no drama but I also came in at last domestic flight at 0030, and I called saying my bags were in hand while still waiting for them, so when bags came down the shuttle rolled up 5 mins later. The shuttle is outsourced, not that anything is wrong with that (it isn’t) but it seems people’s expectations a bit high. I’d imagine if you coming in during flight primetime (1500-2100), you will get waits. But ya if I had to wait 30 mins I’d probably be perturbed too. Whatever.My room was on 2fl facing a dog kennel. If you didn’t run air on auto, you will hear them dogs hustling around 0700. It’s nothing bad and I’m a deep sleeper but it’ll probably bug some of yall. I mean they leave ear plugs on the night stand which I guess is the best they can do.When it comes to 2 star hotels you cannot judge the room based on aesthetic, scuffs on wall, tv picture quality, etc. My metrics are fresh towels and sheets, and this place exceeded that. The gym didn’t have free weights which was sad so thus the -1 tripadvisor star. The free breakfast is standard what you’d expect from a holiday inn express, plenty of options if you know how to improvise high protein breakfast, but no fresh fruit. Overall very good. Staff were very polite and the room was very good for the price I paid ($70, tax in). It also nearby a waffle house so, ya. Do recommend and I will return if the Sheraton is more than $109 a night. and if you want sheraton service and proximity then pay the $40 a night and go there.MoreShow less</t>
+  </si>
+  <si>
+    <t>I dunno why someone said this place was above a 4 star hotel like omni. But omni sucks so that no surprise. But come on, this place has a price list in the bathroom for cost of missing towels, floor mats, etc. This is a standard 2 star airport hotel. Shuttle was no drama but I also came in at last domestic flight at 0030, and I called saying my bags were in hand while still waiting for them, so when bags came down the shuttle rolled up 5 mins later. The shuttle is outsourced, not that anything is wrong with that (it isn’t) but it seems people’s expectations a bit high. I’d imagine if you coming in during flight primetime (1500-2100), you will get waits. But ya if I had to wait 30 mins I’d probably be perturbed too. Whatever.
+My room was on 2fl facing a dog kennel. If you didn’t run air on auto, you will hear them dogs hustling around 0700. It’s nothing bad and I’m a deep sleeper but it’ll probably bug some of yall. I mean they leave ear plugs on the night stand which I guess is the best they can do.
+When it comes to 2 star hotels you cannot judge the room based on aesthetic, scuffs on wall, tv picture quality, etc. My metrics are fresh towels and sheets, and this place exceeded that. The gym didn’t have free weights which...I dunno why someone said this place was above a 4 star hotel like omni. But omni sucks so that no surprise. But come on, this place has a price list in the bathroom for cost of missing towels, floor mats, etc. This is a standard 2 star airport hotel. Shuttle was no drama but I also came in at last domestic flight at 0030, and I called saying my bags were in hand while still waiting for them, so when bags came down the shuttle rolled up 5 mins later. The shuttle is outsourced, not that anything is wrong with that (it isn’t) but it seems people’s expectations a bit high. I’d imagine if you coming in during flight primetime (1500-2100), you will get waits. But ya if I had to wait 30 mins I’d probably be perturbed too. Whatever.My room was on 2fl facing a dog kennel. If you didn’t run air on auto, you will hear them dogs hustling around 0700. It’s nothing bad and I’m a deep sleeper but it’ll probably bug some of yall. I mean they leave ear plugs on the night stand which I guess is the best they can do.When it comes to 2 star hotels you cannot judge the room based on aesthetic, scuffs on wall, tv picture quality, etc. My metrics are fresh towels and sheets, and this place exceeded that. The gym didn’t have free weights which was sad so thus the -1 tripadvisor star. The free breakfast is standard what you’d expect from a holiday inn express, plenty of options if you know how to improvise high protein breakfast, but no fresh fruit. Overall very good. Staff were very polite and the room was very good for the price I paid ($70, tax in). It also nearby a waffle house so, ya. Do recommend and I will return if the Sheraton is more than $109 a night. and if you want sheraton service and proximity then pay the $40 a night and go there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r554497312-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>554497312</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>WORST SHUTTLE EVER - STAY SOMEWHERE ELSE</t>
+  </si>
+  <si>
+    <t>Terrible customer service from both the shuttle AND the hotel. Stayed here as it was the only available option offered from the airline. Called for the shuttle as per the instructions and the gentleman on the phone answered with a very annoyed attitude. He said the shuttle would be there shortly. I waited 30 mins. No shuttle. I then called again and he said it was just on its way. No shuttle. I wait about another 10 mins and then call again. He was very annoyed and says he will call the driver and then hangs up on me. Finally after standing outside in freezing cold temperatures, the shuttle arrives after almost 50 minutes. The shuttle driver is beyond rude when she arrives. Refuses to turn on any heat and tells us that we can get out and close the doors if we are cold. Some attention to customer service is seriously needed. Stay elsewhere if you do not want to be treated disrespectfully.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Terrible customer service from both the shuttle AND the hotel. Stayed here as it was the only available option offered from the airline. Called for the shuttle as per the instructions and the gentleman on the phone answered with a very annoyed attitude. He said the shuttle would be there shortly. I waited 30 mins. No shuttle. I then called again and he said it was just on its way. No shuttle. I wait about another 10 mins and then call again. He was very annoyed and says he will call the driver and then hangs up on me. Finally after standing outside in freezing cold temperatures, the shuttle arrives after almost 50 minutes. The shuttle driver is beyond rude when she arrives. Refuses to turn on any heat and tells us that we can get out and close the doors if we are cold. Some attention to customer service is seriously needed. Stay elsewhere if you do not want to be treated disrespectfully.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r546305184-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>546305184</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Unremarkable - which, for a mid-level motel is just fine</t>
+  </si>
+  <si>
+    <t>The Sleep Inn does just a nice job of maintaining the property and keeping it relatively clean, quiet, with nice people who try to please.  They have free bus shuttle service and everything the hot shot places provide including the potential free tooth brush and tooth paste you can obtain at the desk if you happen to forget your own.  Their breakfast is adequate and free although certainly not the buffet at some expensive hotel where you will also pay for the privilege.  The Internet is also free. So what else do you want?</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r543871667-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>543871667</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Incompetent staff</t>
+  </si>
+  <si>
+    <t>The staff at the SleepInn are incompetent. First, they didn't have our reservation designated as a "park sleep fly" and tried to charge us more to park there until I showed them the confirmation. Then, they tried to put our family of six into a room with two queen beds - no sofa. To get moved to another room required us waiting on the front desk to "get permission" from somebody on the phone. Then, our international flight was scheduled for 6 a.m. and the front desk recommended that we depart 3:30 a.m. to get to the airport "two hours before departure." They failed to inform us that the airport security doesn't even open until 5 a.m. So we got at 3:45 a.m. and sat around the airport for more than an hour before we could even go through security (with four children).
+The worst was on the return flight home - the front desk staff had told us to get our bags, exit, then call then with the door number so they could dispatch the shuttle. We did but they then told us that we were in the wrong place and we needed to be at another door and to "call them back when we got there." So we went to the correct door, called them, and waited for 30 minutes, watching numerous other vans from FastPark, etc., come and go. No sign whatsoever of our "Hotel Express" van....The staff at the SleepInn are incompetent. First, they didn't have our reservation designated as a "park sleep fly" and tried to charge us more to park there until I showed them the confirmation. Then, they tried to put our family of six into a room with two queen beds - no sofa. To get moved to another room required us waiting on the front desk to "get permission" from somebody on the phone. Then, our international flight was scheduled for 6 a.m. and the front desk recommended that we depart 3:30 a.m. to get to the airport "two hours before departure." They failed to inform us that the airport security doesn't even open until 5 a.m. So we got at 3:45 a.m. and sat around the airport for more than an hour before we could even go through security (with four children).The worst was on the return flight home - the front desk staff had told us to get our bags, exit, then call then with the door number so they could dispatch the shuttle. We did but they then told us that we were in the wrong place and we needed to be at another door and to "call them back when we got there." So we went to the correct door, called them, and waited for 30 minutes, watching numerous other vans from FastPark, etc., come and go. No sign whatsoever of our "Hotel Express" van. I called back to make sure the shuttle had been dispatched and the front desk staff said they had "no way of knowing if the shuttle received their dispatch" because it's just a text message. I then asked another airport shuttle driver what they knew, and he said he had just "seen the Hotel Express van sitting idle waiting" down the road. So I called the hotel again and relayed that information. It's now 11:45 p.m. and we've been waiting for 45 minutes (with four exhausted children). The front desk staff called their supervisor on the phone and were told that all along, the staff member had been "texting the wrong person - that it's the weekend and somebody else is driving the shuttle." We tried to get a cab at that point, but the only taxi driver available told me the starting rate was $55. Fortunately, at that moment, the Hotel Express just happened to show up - and told us he had never been texted/contacted/dispatched by the Sleep Inn. He was very helpful and friendly and took us back to our vehicle. We got into our vehicle at 12:10 a.m. (plane arrived at 10:30 p.m.) and began the long three hour drive home. We will never again use Park Sleep Fly or the SleepInn, nor will we recommend anybody else to use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>The staff at the SleepInn are incompetent. First, they didn't have our reservation designated as a "park sleep fly" and tried to charge us more to park there until I showed them the confirmation. Then, they tried to put our family of six into a room with two queen beds - no sofa. To get moved to another room required us waiting on the front desk to "get permission" from somebody on the phone. Then, our international flight was scheduled for 6 a.m. and the front desk recommended that we depart 3:30 a.m. to get to the airport "two hours before departure." They failed to inform us that the airport security doesn't even open until 5 a.m. So we got at 3:45 a.m. and sat around the airport for more than an hour before we could even go through security (with four children).
+The worst was on the return flight home - the front desk staff had told us to get our bags, exit, then call then with the door number so they could dispatch the shuttle. We did but they then told us that we were in the wrong place and we needed to be at another door and to "call them back when we got there." So we went to the correct door, called them, and waited for 30 minutes, watching numerous other vans from FastPark, etc., come and go. No sign whatsoever of our "Hotel Express" van....The staff at the SleepInn are incompetent. First, they didn't have our reservation designated as a "park sleep fly" and tried to charge us more to park there until I showed them the confirmation. Then, they tried to put our family of six into a room with two queen beds - no sofa. To get moved to another room required us waiting on the front desk to "get permission" from somebody on the phone. Then, our international flight was scheduled for 6 a.m. and the front desk recommended that we depart 3:30 a.m. to get to the airport "two hours before departure." They failed to inform us that the airport security doesn't even open until 5 a.m. So we got at 3:45 a.m. and sat around the airport for more than an hour before we could even go through security (with four children).The worst was on the return flight home - the front desk staff had told us to get our bags, exit, then call then with the door number so they could dispatch the shuttle. We did but they then told us that we were in the wrong place and we needed to be at another door and to "call them back when we got there." So we went to the correct door, called them, and waited for 30 minutes, watching numerous other vans from FastPark, etc., come and go. No sign whatsoever of our "Hotel Express" van. I called back to make sure the shuttle had been dispatched and the front desk staff said they had "no way of knowing if the shuttle received their dispatch" because it's just a text message. I then asked another airport shuttle driver what they knew, and he said he had just "seen the Hotel Express van sitting idle waiting" down the road. So I called the hotel again and relayed that information. It's now 11:45 p.m. and we've been waiting for 45 minutes (with four exhausted children). The front desk staff called their supervisor on the phone and were told that all along, the staff member had been "texting the wrong person - that it's the weekend and somebody else is driving the shuttle." We tried to get a cab at that point, but the only taxi driver available told me the starting rate was $55. Fortunately, at that moment, the Hotel Express just happened to show up - and told us he had never been texted/contacted/dispatched by the Sleep Inn. He was very helpful and friendly and took us back to our vehicle. We got into our vehicle at 12:10 a.m. (plane arrived at 10:30 p.m.) and began the long three hour drive home. We will never again use Park Sleep Fly or the SleepInn, nor will we recommend anybody else to use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r541195878-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>541195878</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Shuttle would not pick us up at the airport , even after we called 3 timesIt was always we will be there any minute.Give up after 1 hour of waiting.We then got a Taxi.Next time a more reliable hotel to stay at.And not Sleep Inn &amp; Suite</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r518168338-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>518168338</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Flight cancelled due to hurricane Harvey</t>
+  </si>
+  <si>
+    <t>Wow. Staff is incredible. We are currently stuck here do to Harvey. The staff here is totally amazing. I believe the front desk clerks name is Wanda. This Lady deserves a large bonus/raise. She has been non stop catering to everyone's needs. Extremely professional, polite and couteous. Ask how we are doing and wants to know how she can make our stay better. This area is FLOODED. There is no getting out. Wanda has supervised getting everyone fed at breakfast and dinner. That's right, Dinner. Judging by the line of people there were some hungry folks here. Thank you Wanda do r all you are doingMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Maria B, Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Wow. Staff is incredible. We are currently stuck here do to Harvey. The staff here is totally amazing. I believe the front desk clerks name is Wanda. This Lady deserves a large bonus/raise. She has been non stop catering to everyone's needs. Extremely professional, polite and couteous. Ask how we are doing and wants to know how she can make our stay better. This area is FLOODED. There is no getting out. Wanda has supervised getting everyone fed at breakfast and dinner. That's right, Dinner. Judging by the line of people there were some hungry folks here. Thank you Wanda do r all you are doingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r508872368-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>508872368</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>LOVED IT BROUGHT OUR FRIENDS BACK</t>
+  </si>
+  <si>
+    <t>From the time we walked in and greeted by Yanni? I knew we hit the jackpot. Everything was exactly as if we were in a dream. Fantastic outside appearance, lobby was like a spit shine on the shoes of the Guards at the Tomb of the Unknown Soldier in D.C. Room was clean as a whistle. We left for a couple days, came back, treated like family, Left for 2 weeks, left car, shuttle came back and welcomed like family. This is the ONLY Hotel we will stay inn when around Houston.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r498832214-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>498832214</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>Nice spacious clean and comfortable room, just for one night stopover in Houston. Late night arrival, reception desk staff a bit weird but accommodative. Didn't tried the breakfast since we left the next morning very early.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r494554400-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>494554400</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disorganized </t>
+  </si>
+  <si>
+    <t>I travel frequently and own a couple hotels so know what the norm is in regards to basic hotel operations and hospitality. Beds great, rooms clean and linens unspotted at this hotel. It looks and stays great. Upon arrival I was asked to reserve my shuttle for the next day... which I promptly did for the 8am shuttle. Space is limited so make sure you reserve. Wake up call at 730. Things went smooth until I got a call from front desk at 742 stating the shuttle was ready and would depart immediately. I confirmed that it was the 8am shuttle and was told I could either catch the 9am or a taxi to the airport. Having just got out of the shower There was no way I could make it by 745!!! I ended up paying $20.00 for a taxi that picked me up at 759!!! Super crazy to schedule return guests at 8am shuttles that leave at 743! This place needs to communicate with guests and treat them like guests...super poor experience. I stay at choice hotels frequently but will not be back to this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>I travel frequently and own a couple hotels so know what the norm is in regards to basic hotel operations and hospitality. Beds great, rooms clean and linens unspotted at this hotel. It looks and stays great. Upon arrival I was asked to reserve my shuttle for the next day... which I promptly did for the 8am shuttle. Space is limited so make sure you reserve. Wake up call at 730. Things went smooth until I got a call from front desk at 742 stating the shuttle was ready and would depart immediately. I confirmed that it was the 8am shuttle and was told I could either catch the 9am or a taxi to the airport. Having just got out of the shower There was no way I could make it by 745!!! I ended up paying $20.00 for a taxi that picked me up at 759!!! Super crazy to schedule return guests at 8am shuttles that leave at 743! This place needs to communicate with guests and treat them like guests...super poor experience. I stay at choice hotels frequently but will not be back to this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r481109254-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>481109254</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>The bed was heaven</t>
+  </si>
+  <si>
+    <t>Because of high winds in Houston, we were unable to catch our flight home.  The airline helped us find a discounted hotel for the night.  .  While riding in the Hotel Express van to the hotel we asked the driver what was around the hotel to eat.  He said that the only options were fast food.  Neither my husband nor I like fast food.  PLUS, we were hoping to have a nice glass of wine with a nice meal.  We asked him to tell us about his favorite places to eat.  He then started telling us about Pappas and what to order and the approximate price.  He told us for a small charge that he would pick us up and take us anywhere we would like.  We arrived at the hotel and checked in.  When we got to the room we were pleasantly surprised with the size and décor of our room.  The room had a big desk with a TV on it.  The room also had a large mini frig, coffee maker and microwave.  The room did NOT have a safe which we like to have for valuables.  Looking out the window we saw that a dog kennel and boarding was right behind the hotel but, we did not see or hear any dogs.  We left with the driver and went to the restaurant that he had suggested.  When we came back to the room the dogs were in...Because of high winds in Houston, we were unable to catch our flight home.  The airline helped us find a discounted hotel for the night.  .  While riding in the Hotel Express van to the hotel we asked the driver what was around the hotel to eat.  He said that the only options were fast food.  Neither my husband nor I like fast food.  PLUS, we were hoping to have a nice glass of wine with a nice meal.  We asked him to tell us about his favorite places to eat.  He then started telling us about Pappas and what to order and the approximate price.  He told us for a small charge that he would pick us up and take us anywhere we would like.  We arrived at the hotel and checked in.  When we got to the room we were pleasantly surprised with the size and décor of our room.  The room had a big desk with a TV on it.  The room also had a large mini frig, coffee maker and microwave.  The room did NOT have a safe which we like to have for valuables.  Looking out the window we saw that a dog kennel and boarding was right behind the hotel but, we did not see or hear any dogs.  We left with the driver and went to the restaurant that he had suggested.  When we came back to the room the dogs were in the outside kennels making a lot of noise.  At that moment I thought that there was no way that we would get any sleep.  Within a few minutes the dogs quieted down.  The Bed was heavenly comfortable with a added mattress topper on it.   My husband said that he heard the dogs a few times in the night but they did not wake me up.  I did wake up a few times because the room next to us had the TV blasting though out the night.  We noticed with our rooms TV that the volume went up considerable for commercials.  I think the TV might have been left on by the cleaning people or the last guest. The bathroom was large and had been updated recently.  Unfortunately the towels were a disaster and they had a sign saying they charge for missing towels, bedding, pillows, etc.  I didn't know whether to laugh or be insulted.I was too tired to get up and call so in the morning I tried to talk to the person at the front desk but she was not to be found.  The person making the breakfast said she should be out shortly and was too busy to go get her. I would give this hotel a higher rating IF, they had a restaurant, they needed to update their linens and it the front counter person would have been available to check out of our room and tell about the noisy TV.MoreShow less</t>
+  </si>
+  <si>
+    <t>Because of high winds in Houston, we were unable to catch our flight home.  The airline helped us find a discounted hotel for the night.  .  While riding in the Hotel Express van to the hotel we asked the driver what was around the hotel to eat.  He said that the only options were fast food.  Neither my husband nor I like fast food.  PLUS, we were hoping to have a nice glass of wine with a nice meal.  We asked him to tell us about his favorite places to eat.  He then started telling us about Pappas and what to order and the approximate price.  He told us for a small charge that he would pick us up and take us anywhere we would like.  We arrived at the hotel and checked in.  When we got to the room we were pleasantly surprised with the size and décor of our room.  The room had a big desk with a TV on it.  The room also had a large mini frig, coffee maker and microwave.  The room did NOT have a safe which we like to have for valuables.  Looking out the window we saw that a dog kennel and boarding was right behind the hotel but, we did not see or hear any dogs.  We left with the driver and went to the restaurant that he had suggested.  When we came back to the room the dogs were in...Because of high winds in Houston, we were unable to catch our flight home.  The airline helped us find a discounted hotel for the night.  .  While riding in the Hotel Express van to the hotel we asked the driver what was around the hotel to eat.  He said that the only options were fast food.  Neither my husband nor I like fast food.  PLUS, we were hoping to have a nice glass of wine with a nice meal.  We asked him to tell us about his favorite places to eat.  He then started telling us about Pappas and what to order and the approximate price.  He told us for a small charge that he would pick us up and take us anywhere we would like.  We arrived at the hotel and checked in.  When we got to the room we were pleasantly surprised with the size and décor of our room.  The room had a big desk with a TV on it.  The room also had a large mini frig, coffee maker and microwave.  The room did NOT have a safe which we like to have for valuables.  Looking out the window we saw that a dog kennel and boarding was right behind the hotel but, we did not see or hear any dogs.  We left with the driver and went to the restaurant that he had suggested.  When we came back to the room the dogs were in the outside kennels making a lot of noise.  At that moment I thought that there was no way that we would get any sleep.  Within a few minutes the dogs quieted down.  The Bed was heavenly comfortable with a added mattress topper on it.   My husband said that he heard the dogs a few times in the night but they did not wake me up.  I did wake up a few times because the room next to us had the TV blasting though out the night.  We noticed with our rooms TV that the volume went up considerable for commercials.  I think the TV might have been left on by the cleaning people or the last guest. The bathroom was large and had been updated recently.  Unfortunately the towels were a disaster and they had a sign saying they charge for missing towels, bedding, pillows, etc.  I didn't know whether to laugh or be insulted.I was too tired to get up and call so in the morning I tried to talk to the person at the front desk but she was not to be found.  The person making the breakfast said she should be out shortly and was too busy to go get her. I would give this hotel a higher rating IF, they had a restaurant, they needed to update their linens and it the front counter person would have been available to check out of our room and tell about the noisy TV.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r479600012-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>479600012</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Fleas, Fleas snd More Fleas</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel and they have fleas on the inside and outside...If your going to visit Tuesdays thru Sundays are best #BetterStaff...There is a kennel next door so if you get a room on that side you will hear dogs barking all night...#goodluck</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r473104548-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>473104548</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Disaster</t>
+  </si>
+  <si>
+    <t>This hotel was booked through an agency named Travelliance which is about as bad as this hotel. The hotel was 45 minutes late picking me at the airport. When I checked into my room I could hardly believe the rooms are right above a "dog" hotel. Neither Travelliance or the hotel would give me my money back. I had an early morning flight and was told to be at the counter at 420AM for a 430AM shuttle even though they knew beforehand no driver's would be available! I feel bad for the staff that has to make up for this poorly managed place. I can't call it a hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r471061332-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>471061332</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Horrible airport shuttle service</t>
+  </si>
+  <si>
+    <t>Hotel is ok, clean, has breakfast but so bad shuttle service! I lost my flight last night, thats why i stayed in this hotel and first of all i needed to be on time for my rescheduled flight in the morning. I asked for shuttle at 7am, we left only 7.20, the driver girl was awful, so rude with me, speaking on phone while driving. Can u imagine my stress? I just needed to be back to the airport on time, nothing else. She did all to stress me more.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r469167691-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>469167691</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Will Never Stay Here Again!</t>
+  </si>
+  <si>
+    <t>Although the room was nice, the problem is the staff starting with the manager. We had an early flight the next morning, but the scheduled wake up call did not happen nor the in-room alarm. In our haste to catch the shuttle, I left an item in the room which I discovered later in the day upon arrival in another state. I called that same day; the gentleman said he would check with housekeeping and call me. I didn't hear from anyone for 3 weeks! However I repeatedly called (one desk clerk hung up on me! When I called back and asked why, she said she was busy!) asking for the mgr who never returned my call. In the meantime, I received a survey from corporate-Choice Hotels- and related my story. They give the mgr a negative report. THEN I get a call from her. The conversation went downhill from "hello". She yelled at me, accused me of making up stories about leaving something in the room just to get a free night. She did offer me a free night at any hotel in Houston IF I could prove I even had the item with me (a hairstyling product I always travel with) When I asked how could I prove it, she told me they had cameras in the hallway and would know if I had the item with me! She continued to yell and call me names - really?...Although the room was nice, the problem is the staff starting with the manager. We had an early flight the next morning, but the scheduled wake up call did not happen nor the in-room alarm. In our haste to catch the shuttle, I left an item in the room which I discovered later in the day upon arrival in another state. I called that same day; the gentleman said he would check with housekeeping and call me. I didn't hear from anyone for 3 weeks! However I repeatedly called (one desk clerk hung up on me! When I called back and asked why, she said she was busy!) asking for the mgr who never returned my call. In the meantime, I received a survey from corporate-Choice Hotels- and related my story. They give the mgr a negative report. THEN I get a call from her. The conversation went downhill from "hello". She yelled at me, accused me of making up stories about leaving something in the room just to get a free night. She did offer me a free night at any hotel in Houston IF I could prove I even had the item with me (a hairstyling product I always travel with) When I asked how could I prove it, she told me they had cameras in the hallway and would know if I had the item with me! She continued to yell and call me names - really? - how professional is that?? All I wanted was for someone to check with housekeeping to look for the item and when I suggested maybe comp my room for 50% which would help toward my replacement cost, she went ballistic and threatened to fire her entire staff. Oh - the wake up call? I scheduled it when I checked in, but the next morning while waiting for the shuttle, I asked about it and was told I wasn't on the list! A friend who was also a guest, told her that she was standing next to me when I made the request. So if you stay here and enjoy it - great! If you ever have a problem, don't expect help from mgmt. - she doesn't care!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Although the room was nice, the problem is the staff starting with the manager. We had an early flight the next morning, but the scheduled wake up call did not happen nor the in-room alarm. In our haste to catch the shuttle, I left an item in the room which I discovered later in the day upon arrival in another state. I called that same day; the gentleman said he would check with housekeeping and call me. I didn't hear from anyone for 3 weeks! However I repeatedly called (one desk clerk hung up on me! When I called back and asked why, she said she was busy!) asking for the mgr who never returned my call. In the meantime, I received a survey from corporate-Choice Hotels- and related my story. They give the mgr a negative report. THEN I get a call from her. The conversation went downhill from "hello". She yelled at me, accused me of making up stories about leaving something in the room just to get a free night. She did offer me a free night at any hotel in Houston IF I could prove I even had the item with me (a hairstyling product I always travel with) When I asked how could I prove it, she told me they had cameras in the hallway and would know if I had the item with me! She continued to yell and call me names - really?...Although the room was nice, the problem is the staff starting with the manager. We had an early flight the next morning, but the scheduled wake up call did not happen nor the in-room alarm. In our haste to catch the shuttle, I left an item in the room which I discovered later in the day upon arrival in another state. I called that same day; the gentleman said he would check with housekeeping and call me. I didn't hear from anyone for 3 weeks! However I repeatedly called (one desk clerk hung up on me! When I called back and asked why, she said she was busy!) asking for the mgr who never returned my call. In the meantime, I received a survey from corporate-Choice Hotels- and related my story. They give the mgr a negative report. THEN I get a call from her. The conversation went downhill from "hello". She yelled at me, accused me of making up stories about leaving something in the room just to get a free night. She did offer me a free night at any hotel in Houston IF I could prove I even had the item with me (a hairstyling product I always travel with) When I asked how could I prove it, she told me they had cameras in the hallway and would know if I had the item with me! She continued to yell and call me names - really? - how professional is that?? All I wanted was for someone to check with housekeeping to look for the item and when I suggested maybe comp my room for 50% which would help toward my replacement cost, she went ballistic and threatened to fire her entire staff. Oh - the wake up call? I scheduled it when I checked in, but the next morning while waiting for the shuttle, I asked about it and was told I wasn't on the list! A friend who was also a guest, told her that she was standing next to me when I made the request. So if you stay here and enjoy it - great! If you ever have a problem, don't expect help from mgmt. - she doesn't care!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r464392329-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>464392329</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Good clean hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clean hotel close to the airport which was ideal for the first night after a long flight. Room was as expected. Beds comfy, bathroom clean and a good breakfast. Exactly what we want from a Sleep Inn and Suites hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r463876617-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>463876617</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Pleasant motel close to airport</t>
+  </si>
+  <si>
+    <t>Nice clean comfortable room; we had a good night's sleep - especially welcome after a long journey; very convenient following evening arrival at Houston international airport; good breakfast; good shower; everything I would expect from a decent motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Nice clean comfortable room; we had a good night's sleep - especially welcome after a long journey; very convenient following evening arrival at Houston international airport; good breakfast; good shower; everything I would expect from a decent motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r461003150-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>461003150</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>We stayed here one night in order to be close to the airport for an early morning flight. The hotel was dated but clean. Our room was in the 3rd floor and faced some type of large dog kennel and the dogs barked quite a bit at first but stopped and I didn't hear them during the night. There were signs in the bathroom stating they only change towels and linens every three days unless specifically requested and also a price list of what they will charge for missing hand towels, wash cloths all the way to bedspreads. Also signs saying they will call the shuttle one time for your airport run and if you miss it, take a cab. I felt the signs were classless and made me feel like I was in a cheap hotel. It was ok for an overnight stay but probably wouldn't  stay again .  MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here one night in order to be close to the airport for an early morning flight. The hotel was dated but clean. Our room was in the 3rd floor and faced some type of large dog kennel and the dogs barked quite a bit at first but stopped and I didn't hear them during the night. There were signs in the bathroom stating they only change towels and linens every three days unless specifically requested and also a price list of what they will charge for missing hand towels, wash cloths all the way to bedspreads. Also signs saying they will call the shuttle one time for your airport run and if you miss it, take a cab. I felt the signs were classless and made me feel like I was in a cheap hotel. It was ok for an overnight stay but probably wouldn't  stay again .  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r450143655-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>450143655</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>BEWARE:  Barking dogs from the kennels next door</t>
+  </si>
+  <si>
+    <t>We ended up staying in this hotel after a flight cancellation at the nearby George Bush International airport.  (The airline suggested the hotel.)
+Be aware that this hotel is located right next door to a business known as "Pet Paradise"...  a pet boarding service.  My first clue that there might be a problem was when I noticed the hotel had provided a pair of ear plugs on the night stands on both sides of the bed.
+The sound of barking dogs was constant during our stay.  It was at a medium level in the evening.  Throughout the night and until sunrise it was just a random dog barking every now and then.  Once the sun came up, the employees moved the dogs to the outdoor exercise pens and there were numerous dogs barking...  so, no way to sleep in at the ironically named "Sleep Inn"...  at least not in the even-numbered rooms that are directly adjacent to the dog kennels.
+If you absolutely must stay at this hotel, insist on an odd-numbered room.  Those are on the side of the hotel that faces the other direction...  and they probably don't have a noise issue at all.
+On the positive side, our room had one of the nicest showers I've ever seen in a hotel.  I wish the shower at our house was this nice.  The bed was comfortable, and I enjoyed the free breakfast in the morning...  although my wife,...We ended up staying in this hotel after a flight cancellation at the nearby George Bush International airport.  (The airline suggested the hotel.)Be aware that this hotel is located right next door to a business known as "Pet Paradise"...  a pet boarding service.  My first clue that there might be a problem was when I noticed the hotel had provided a pair of ear plugs on the night stands on both sides of the bed.The sound of barking dogs was constant during our stay.  It was at a medium level in the evening.  Throughout the night and until sunrise it was just a random dog barking every now and then.  Once the sun came up, the employees moved the dogs to the outdoor exercise pens and there were numerous dogs barking...  so, no way to sleep in at the ironically named "Sleep Inn"...  at least not in the even-numbered rooms that are directly adjacent to the dog kennels.If you absolutely must stay at this hotel, insist on an odd-numbered room.  Those are on the side of the hotel that faces the other direction...  and they probably don't have a noise issue at all.On the positive side, our room had one of the nicest showers I've ever seen in a hotel.  I wish the shower at our house was this nice.  The bed was comfortable, and I enjoyed the free breakfast in the morning...  although my wife, who has to eat gluten-free and dairy-free did not.  Also, there was a free shuttle to and from the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Maria B, Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>We ended up staying in this hotel after a flight cancellation at the nearby George Bush International airport.  (The airline suggested the hotel.)
+Be aware that this hotel is located right next door to a business known as "Pet Paradise"...  a pet boarding service.  My first clue that there might be a problem was when I noticed the hotel had provided a pair of ear plugs on the night stands on both sides of the bed.
+The sound of barking dogs was constant during our stay.  It was at a medium level in the evening.  Throughout the night and until sunrise it was just a random dog barking every now and then.  Once the sun came up, the employees moved the dogs to the outdoor exercise pens and there were numerous dogs barking...  so, no way to sleep in at the ironically named "Sleep Inn"...  at least not in the even-numbered rooms that are directly adjacent to the dog kennels.
+If you absolutely must stay at this hotel, insist on an odd-numbered room.  Those are on the side of the hotel that faces the other direction...  and they probably don't have a noise issue at all.
+On the positive side, our room had one of the nicest showers I've ever seen in a hotel.  I wish the shower at our house was this nice.  The bed was comfortable, and I enjoyed the free breakfast in the morning...  although my wife,...We ended up staying in this hotel after a flight cancellation at the nearby George Bush International airport.  (The airline suggested the hotel.)Be aware that this hotel is located right next door to a business known as "Pet Paradise"...  a pet boarding service.  My first clue that there might be a problem was when I noticed the hotel had provided a pair of ear plugs on the night stands on both sides of the bed.The sound of barking dogs was constant during our stay.  It was at a medium level in the evening.  Throughout the night and until sunrise it was just a random dog barking every now and then.  Once the sun came up, the employees moved the dogs to the outdoor exercise pens and there were numerous dogs barking...  so, no way to sleep in at the ironically named "Sleep Inn"...  at least not in the even-numbered rooms that are directly adjacent to the dog kennels.If you absolutely must stay at this hotel, insist on an odd-numbered room.  Those are on the side of the hotel that faces the other direction...  and they probably don't have a noise issue at all.On the positive side, our room had one of the nicest showers I've ever seen in a hotel.  I wish the shower at our house was this nice.  The bed was comfortable, and I enjoyed the free breakfast in the morning...  although my wife, who has to eat gluten-free and dairy-free did not.  Also, there was a free shuttle to and from the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r446288058-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>446288058</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Amazing service</t>
+  </si>
+  <si>
+    <t>Had a layover of 9 hours got to the hotel super late, the shuttle service both ways was amazing, the front desk staff super kind and the room was huge, this is the place to stay great experience, and key locationMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded December 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2016</t>
+  </si>
+  <si>
+    <t>Had a layover of 9 hours got to the hotel super late, the shuttle service both ways was amazing, the front desk staff super kind and the room was huge, this is the place to stay great experience, and key locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r440080031-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>440080031</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>Flight delay</t>
+  </si>
+  <si>
+    <t>Had an overnight stay after a flight delay.  Early shuttle to airport before the breakfast buffet so didn't have a chance to try that.  Room was clean as was the lobby area.  Only downside is needed a resturant for dinner and only thing available within walking distance is a jack in the box, sonic or waffle house.  Bonus is a convenient store across the street to grab a beer or snack.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded November 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2016</t>
+  </si>
+  <si>
+    <t>Had an overnight stay after a flight delay.  Early shuttle to airport before the breakfast buffet so didn't have a chance to try that.  Room was clean as was the lobby area.  Only downside is needed a resturant for dinner and only thing available within walking distance is a jack in the box, sonic or waffle house.  Bonus is a convenient store across the street to grab a beer or snack.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r403286116-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>403286116</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Close to the airport and very clean.</t>
+  </si>
+  <si>
+    <t>We stayed here before flying out on vacation. Fast check and friendly clerk. Room was comfortable and quiet. Breakfast room was crowded and took  time to get, make food. Very close to the airport parking and easy for us to leave for our morning flight. Would stay again if i have an early morning flight.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here before flying out on vacation. Fast check and friendly clerk. Room was comfortable and quiet. Breakfast room was crowded and took  time to get, make food. Very close to the airport parking and easy for us to leave for our morning flight. Would stay again if i have an early morning flight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r395988728-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>395988728</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Very quiet!</t>
+  </si>
+  <si>
+    <t>Double queen size beds, room was very clean, breakfast sitting area is small, but decent food, very quiet. Front desk was very helpful with extra clean towels. Booked using Booking.com, was east to place and verify our stay. Will stay again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Double queen size beds, room was very clean, breakfast sitting area is small, but decent food, very quiet. Front desk was very helpful with extra clean towels. Booked using Booking.com, was east to place and verify our stay. Will stay again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r388485074-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>388485074</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Horrible service</t>
+  </si>
+  <si>
+    <t>Stayed here as a sleep, park and fly program, and going was great. On the way home we made a reservation for the night we got in. We called to let them know our flight was delayed from the original 7 pm to 11pm. They said no worry, simply call when we get in and they would send a shuttle.  After arriving, we called for an hour with no answer, called the toll free number, and they told us to keep trying. Finally got an answer, 45 minutes later the shuttle comes, we get to the hotel and there was no reservation listed. We had the confirmation number, but to no avail, it was booked.  We had to leave at 1:30 in the morning to find another hotel.  This was the worst service I have ever received at any choice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Stayed here as a sleep, park and fly program, and going was great. On the way home we made a reservation for the night we got in. We called to let them know our flight was delayed from the original 7 pm to 11pm. They said no worry, simply call when we get in and they would send a shuttle.  After arriving, we called for an hour with no answer, called the toll free number, and they told us to keep trying. Finally got an answer, 45 minutes later the shuttle comes, we get to the hotel and there was no reservation listed. We had the confirmation number, but to no avail, it was booked.  We had to leave at 1:30 in the morning to find another hotel.  This was the worst service I have ever received at any choice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r377105637-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>377105637</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel for short stay</t>
+  </si>
+  <si>
+    <t>We flew in to the airport about 5:30. The hotel has a shuttle which runs 24 hours a day. It was nice because we had to leave at 3 am. Quick check in. Nice clean lobby. Very nice room!! Loved the love seat to watch tv. Did not use any amenities due to short stay. Comfy bed and very clean. Our only complaint is no vending machines with drinks. Had to go to gas station. MoreShow less</t>
+  </si>
+  <si>
+    <t>We flew in to the airport about 5:30. The hotel has a shuttle which runs 24 hours a day. It was nice because we had to leave at 3 am. Quick check in. Nice clean lobby. Very nice room!! Loved the love seat to watch tv. Did not use any amenities due to short stay. Comfy bed and very clean. Our only complaint is no vending machines with drinks. Had to go to gas station. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r374288030-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>374288030</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>A good place to stay in Houston</t>
+  </si>
+  <si>
+    <t>I was flying through Houston Texas and had an eleven hour layover between flights. I had stayed at a couple of other hotels in the vicinity and decided to try another facility. I selected Sleep Inn &amp; Suites Bush International – IAH East.
+Sleep Inn has a shuttle but you need to telephone them to get the shuttle, HOTEL EXPRESS. They do not appear on the hotel board in the International arrivals level. The shuttle is shared by five hotels in the area. The shuttle arrived quickly. When I got to the hotel, I booked the shuttle for the morning trip back to the airport. It arrived on schedule. The drive to the airport is maybe five minutes.
+The room itself was quite nice, clean and fresh. The room included Wi-Fi. A hot breakfast buffet was provided and included eggs, sausage, biscuits and gravy, fruit and pastries. Let the desk clerk know that you would like breakfast before the shuttle arrives. Breakfast starts at 06:30 and the shuttle arrived at 06:45. Breakfast was available about 06:20.
+I selected Sleep Inn partly due to cost. It was less expensive that some of the other hotels in the area and was perfectly acceptable for my needs. I had read that there is a dog run behind the hotel which my room overlooked. By the time I checked in, there were no barking dogs and the room was very quiet.
+Would I stay...I was flying through Houston Texas and had an eleven hour layover between flights. I had stayed at a couple of other hotels in the vicinity and decided to try another facility. I selected Sleep Inn &amp; Suites Bush International – IAH East.Sleep Inn has a shuttle but you need to telephone them to get the shuttle, HOTEL EXPRESS. They do not appear on the hotel board in the International arrivals level. The shuttle is shared by five hotels in the area. The shuttle arrived quickly. When I got to the hotel, I booked the shuttle for the morning trip back to the airport. It arrived on schedule. The drive to the airport is maybe five minutes.The room itself was quite nice, clean and fresh. The room included Wi-Fi. A hot breakfast buffet was provided and included eggs, sausage, biscuits and gravy, fruit and pastries. Let the desk clerk know that you would like breakfast before the shuttle arrives. Breakfast starts at 06:30 and the shuttle arrived at 06:45. Breakfast was available about 06:20.I selected Sleep Inn partly due to cost. It was less expensive that some of the other hotels in the area and was perfectly acceptable for my needs. I had read that there is a dog run behind the hotel which my room overlooked. By the time I checked in, there were no barking dogs and the room was very quiet.Would I stay here again? Yes, even for more than an overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was flying through Houston Texas and had an eleven hour layover between flights. I had stayed at a couple of other hotels in the vicinity and decided to try another facility. I selected Sleep Inn &amp; Suites Bush International – IAH East.
+Sleep Inn has a shuttle but you need to telephone them to get the shuttle, HOTEL EXPRESS. They do not appear on the hotel board in the International arrivals level. The shuttle is shared by five hotels in the area. The shuttle arrived quickly. When I got to the hotel, I booked the shuttle for the morning trip back to the airport. It arrived on schedule. The drive to the airport is maybe five minutes.
+The room itself was quite nice, clean and fresh. The room included Wi-Fi. A hot breakfast buffet was provided and included eggs, sausage, biscuits and gravy, fruit and pastries. Let the desk clerk know that you would like breakfast before the shuttle arrives. Breakfast starts at 06:30 and the shuttle arrived at 06:45. Breakfast was available about 06:20.
+I selected Sleep Inn partly due to cost. It was less expensive that some of the other hotels in the area and was perfectly acceptable for my needs. I had read that there is a dog run behind the hotel which my room overlooked. By the time I checked in, there were no barking dogs and the room was very quiet.
+Would I stay...I was flying through Houston Texas and had an eleven hour layover between flights. I had stayed at a couple of other hotels in the vicinity and decided to try another facility. I selected Sleep Inn &amp; Suites Bush International – IAH East.Sleep Inn has a shuttle but you need to telephone them to get the shuttle, HOTEL EXPRESS. They do not appear on the hotel board in the International arrivals level. The shuttle is shared by five hotels in the area. The shuttle arrived quickly. When I got to the hotel, I booked the shuttle for the morning trip back to the airport. It arrived on schedule. The drive to the airport is maybe five minutes.The room itself was quite nice, clean and fresh. The room included Wi-Fi. A hot breakfast buffet was provided and included eggs, sausage, biscuits and gravy, fruit and pastries. Let the desk clerk know that you would like breakfast before the shuttle arrives. Breakfast starts at 06:30 and the shuttle arrived at 06:45. Breakfast was available about 06:20.I selected Sleep Inn partly due to cost. It was less expensive that some of the other hotels in the area and was perfectly acceptable for my needs. I had read that there is a dog run behind the hotel which my room overlooked. By the time I checked in, there were no barking dogs and the room was very quiet.Would I stay here again? Yes, even for more than an overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r374056148-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>374056148</t>
+  </si>
+  <si>
+    <t>Nice hotel, worth staying at</t>
+  </si>
+  <si>
+    <t>I had the option to stay at number of hotels in the area but picked the Sleep Inn because of price.  Things got off to an odd start and the receptionist was weird, just weird.  However, having survived that the room was great.  It was clean and comfortable and definitely worth the money.  Only a Jack in the Box in the area to eat.  Breakfast was also fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I had the option to stay at number of hotels in the area but picked the Sleep Inn because of price.  Things got off to an odd start and the receptionist was weird, just weird.  However, having survived that the room was great.  It was clean and comfortable and definitely worth the money.  Only a Jack in the Box in the area to eat.  Breakfast was also fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r362299379-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>362299379</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Location was great and convenient close to the highway and to the Airport as well, shuttle service is not the best but it will do. Our room was clean and the furniture etc looked brand new. Breakfast was great also..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Maria B, Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Location was great and convenient close to the highway and to the Airport as well, shuttle service is not the best but it will do. Our room was clean and the furniture etc looked brand new. Breakfast was great also..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r356994740-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>356994740</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got stuck in Houston .. Overnight stay </t>
+  </si>
+  <si>
+    <t>After an exhausting and stressful day of traveling.. We got stuck in Houston.. This Sleep Inn improved our rough day. We were able to quickly get a free shuttle to the hotel from the airport. The gentleman the front desk was very welcoming and helpful when he arrived at 10pm. The room was very nice a suite of some type which includes a bed, couch, sitting area, mini fridge and sink and kitchen cabinets. The bathroom is beautiful with granite. The lobby, halls, and eating area must of been recently updated as the paint and carpets all look new. The breakfast was filling and had a lot of choices for a continental breakfast. Newspaper available to read too. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>After an exhausting and stressful day of traveling.. We got stuck in Houston.. This Sleep Inn improved our rough day. We were able to quickly get a free shuttle to the hotel from the airport. The gentleman the front desk was very welcoming and helpful when he arrived at 10pm. The room was very nice a suite of some type which includes a bed, couch, sitting area, mini fridge and sink and kitchen cabinets. The bathroom is beautiful with granite. The lobby, halls, and eating area must of been recently updated as the paint and carpets all look new. The breakfast was filling and had a lot of choices for a continental breakfast. Newspaper available to read too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r353407466-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>353407466</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>thank you..</t>
+  </si>
+  <si>
+    <t>The shuttle picked us up for free. 24 hour shuttle, which is nice.the room was very clean. Literally the most comfortable bed I've ever slept in. The man at the front desk gave us the discount price without me asking for it. He suggested we stop by some desk at the airport but we were way too tired to mess around with all that.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>The shuttle picked us up for free. 24 hour shuttle, which is nice.the room was very clean. Literally the most comfortable bed I've ever slept in. The man at the front desk gave us the discount price without me asking for it. He suggested we stop by some desk at the airport but we were way too tired to mess around with all that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r351077188-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>351077188</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>It's clean; other than that not worth the $$</t>
+  </si>
+  <si>
+    <t>This hotel is clean; our room was clean and well stocked; the first clerk we encountered upon check in (a young woman) was very friendly and helpful; these are the only reasons we're giving a 2* rating otherwise it would have been 1*.The clerk on our second day (a young man) was less than personable, was uninterested and barely acknowledged us when we asked questions. The food for breakfast was not replenished (we went down at 8:00 am), there were no cups for coffee (and no attendant to ask); husband asked front desk clerk (the young man) if there were cups .... he just looked at him and did nothing. Another gentleman went in and started going through cabinets and got a few cups out (lids did not fit). All in all, we would not stay here again and not recommend this hotel. As a side note on the noise ... it wasn't the airplanes that were a factor but a dog kennel right next door with dogs barking constantly.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is clean; our room was clean and well stocked; the first clerk we encountered upon check in (a young woman) was very friendly and helpful; these are the only reasons we're giving a 2* rating otherwise it would have been 1*.The clerk on our second day (a young man) was less than personable, was uninterested and barely acknowledged us when we asked questions. The food for breakfast was not replenished (we went down at 8:00 am), there were no cups for coffee (and no attendant to ask); husband asked front desk clerk (the young man) if there were cups .... he just looked at him and did nothing. Another gentleman went in and started going through cabinets and got a few cups out (lids did not fit). All in all, we would not stay here again and not recommend this hotel. As a side note on the noise ... it wasn't the airplanes that were a factor but a dog kennel right next door with dogs barking constantly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r350897921-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>350897921</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Great Place To Stay For Business!</t>
+  </si>
+  <si>
+    <t>My room was super clean and neat. The cost was half of the hotel that was hosting the conference that I was attending. It was because of the cost that I booked but the service and cleanliness will bring me back. Customer service desk was friendly and and efficient. MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>My room was super clean and neat. The cost was half of the hotel that was hosting the conference that I was attending. It was because of the cost that I booked but the service and cleanliness will bring me back. Customer service desk was friendly and and efficient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r347249003-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>347249003</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>Next door Dog Kennel! Really!!!</t>
+  </si>
+  <si>
+    <t>Not sure I would do this one again. My room had a dog kennel outside my window. Dogs barking when I arrived. Luckily, I was only staying one night and they didn't bark at night. The room was dark and outdated. The front desk service was not consumer friendly. I didn't feel very welcome at all. The interior of the hotel was also dark and dingy. It was kind of creepy. As a business traveler, I felt dirty being there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r344231094-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>344231094</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not so good </t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was well located near the airport. When we checked in we had requested to pay cash and the front desk lady was dismissive and said we can do so at check out. She then gave us the key to a room that was not made up!!! Dirty bed, bathroom and everything. We were very grossed out. When we called the front desk she said oh we will give you another room. No apologies, like this happens everyday. The next day we had an early check out and a different guy at the counter said we had to pay at check in if we wanted to pay cash! Such inconsistencies. We asked him for the name of the first employee and he said he didn't know and we would have to call the hotel at another time. I can deal with bad breakfast and a below avg room but their customer service had left a sour taste in my mouth. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was well located near the airport. When we checked in we had requested to pay cash and the front desk lady was dismissive and said we can do so at check out. She then gave us the key to a room that was not made up!!! Dirty bed, bathroom and everything. We were very grossed out. When we called the front desk she said oh we will give you another room. No apologies, like this happens everyday. The next day we had an early check out and a different guy at the counter said we had to pay at check in if we wanted to pay cash! Such inconsistencies. We asked him for the name of the first employee and he said he didn't know and we would have to call the hotel at another time. I can deal with bad breakfast and a below avg room but their customer service had left a sour taste in my mouth. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r342832875-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>342832875</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>They should be out of business</t>
+  </si>
+  <si>
+    <t>This hotel is directly beside a dog kennel.  Outside my window every day and night I had barking, howling, etc...It was so bad I had to put on headphones to watch TV using a special app.  I asked to be moved to the other hall and the staff stated that's what the earplugs are for.  He said I could get a suite but it would cost an additional $90.  ARE YOU SERIOUS!!!!  I travel a lot and I have never experienced a trip like this.  If I hadn't prepaid I would have checked out.  3 miserable days of howling, barking and noise.  The rooms are clean but the location is RIDICULOUS.  No WATER PRESSURE so be prepared for a drip style shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This hotel is directly beside a dog kennel.  Outside my window every day and night I had barking, howling, etc...It was so bad I had to put on headphones to watch TV using a special app.  I asked to be moved to the other hall and the staff stated that's what the earplugs are for.  He said I could get a suite but it would cost an additional $90.  ARE YOU SERIOUS!!!!  I travel a lot and I have never experienced a trip like this.  If I hadn't prepaid I would have checked out.  3 miserable days of howling, barking and noise.  The rooms are clean but the location is RIDICULOUS.  No WATER PRESSURE so be prepared for a drip style shower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r336485677-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>336485677</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; acceptable if stranded at Houston-Bush Airport</t>
+  </si>
+  <si>
+    <t>We were stranded at the Houston airport due to flight cancellations and booked this hotel using Travel Alliance (offering discounted hotels for stranded airline passengers).  There is a 24-hour shuttle available, and we found the shuttle drivers to be an absolute pleasure!  (I wish we knew the name of the shuttle service to give them a great review.)  The clerk at the hotel was very courteous, and our room was very clean; it is an older hotel.  One thing to be aware of is that this hotel sits next to a dog kennel.  When we first arrived, we heard barking and were concerned about getting a good night's sleep.  After a few minutes, the barking stopped and we were actually able to sleep soundly through the night.  I think they may have been letting the dogs outside when we arrived.  If you are a very light sleeper, please be aware of the nearby dog kennel.  (This is something that was not mentioned to us when we booked the room through Travel Alliance.  Not sure if any booking agent or clerk would have said anything about this however.)The breakfast buffet was actually surprisingly good, and everything was very clean in the dining area.  Pleasantly surprised!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>We were stranded at the Houston airport due to flight cancellations and booked this hotel using Travel Alliance (offering discounted hotels for stranded airline passengers).  There is a 24-hour shuttle available, and we found the shuttle drivers to be an absolute pleasure!  (I wish we knew the name of the shuttle service to give them a great review.)  The clerk at the hotel was very courteous, and our room was very clean; it is an older hotel.  One thing to be aware of is that this hotel sits next to a dog kennel.  When we first arrived, we heard barking and were concerned about getting a good night's sleep.  After a few minutes, the barking stopped and we were actually able to sleep soundly through the night.  I think they may have been letting the dogs outside when we arrived.  If you are a very light sleeper, please be aware of the nearby dog kennel.  (This is something that was not mentioned to us when we booked the room through Travel Alliance.  Not sure if any booking agent or clerk would have said anything about this however.)The breakfast buffet was actually surprisingly good, and everything was very clean in the dining area.  Pleasantly surprised!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r323665514-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>323665514</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Nice place.</t>
+  </si>
+  <si>
+    <t>Stayed for one night at this hotel.  The front counter person was friendly, there was free wi-fi, the rooms were clean with comfortable beds. There was free breakfast in the morning. It was a nice place to be stuck for the night. Since I only stayed one night I didn't get to see much else but there was a nice pool area with hot tub too. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for one night at this hotel.  The front counter person was friendly, there was free wi-fi, the rooms were clean with comfortable beds. There was free breakfast in the morning. It was a nice place to be stuck for the night. Since I only stayed one night I didn't get to see much else but there was a nice pool area with hot tub too. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r323512112-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>323512112</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Dog lovers paradise!</t>
+  </si>
+  <si>
+    <t>The hotel is convenient to the airport. Checked in then went to our room and heard dogs barking. Opened the drapes and saw a huge dog kennel located no more than 20 ft. from the hotel! Promptly went to the front desk and requested a room located on the other side of the building. At first we were told the system was down and after much waiting we just told the clerk that we would just find another hotel and contest the credit card charges. Then we were told it would be an additional $5 fee because all they had was suites on that side that were available. Rooms are clean and roomy, however front desk management needs improvement. Note to self... Find another place to stay next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is convenient to the airport. Checked in then went to our room and heard dogs barking. Opened the drapes and saw a huge dog kennel located no more than 20 ft. from the hotel! Promptly went to the front desk and requested a room located on the other side of the building. At first we were told the system was down and after much waiting we just told the clerk that we would just find another hotel and contest the credit card charges. Then we were told it would be an additional $5 fee because all they had was suites on that side that were available. Rooms are clean and roomy, however front desk management needs improvement. Note to self... Find another place to stay next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r322966117-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>322966117</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Good last-minute accomodation</t>
+  </si>
+  <si>
+    <t>We got stranded at Houston Intercontinental because of flight delays.  The airline offered us a discounted room thru a third-party contractor.  The contractor arranged for us to get a room at this hotel. Ivan (at the front desk) was amazing!  He knew there was going to be an influx of stranded travelers, so he had everything lined up and ready to go the minute we got there.  It was less than 5 minutes from the time we walked in the door until we got to your room.  The room was your basic, economy hotel room.  It was clean, comfortable, and well furnished.  Since we were stranded without some supplies, Ivan happily provided us with complimentary replacements.  The next morning, even though breakfast was supposed to start until 6:30, it was available by about 6:15.  I think the folks at the front desk knew quite a few of us had early flights, so they go the spread out a little early. That small consideration was very much appreciated.  Everyone we dealt with at the hotel helped make being stranded a little less stressful.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We got stranded at Houston Intercontinental because of flight delays.  The airline offered us a discounted room thru a third-party contractor.  The contractor arranged for us to get a room at this hotel. Ivan (at the front desk) was amazing!  He knew there was going to be an influx of stranded travelers, so he had everything lined up and ready to go the minute we got there.  It was less than 5 minutes from the time we walked in the door until we got to your room.  The room was your basic, economy hotel room.  It was clean, comfortable, and well furnished.  Since we were stranded without some supplies, Ivan happily provided us with complimentary replacements.  The next morning, even though breakfast was supposed to start until 6:30, it was available by about 6:15.  I think the folks at the front desk knew quite a few of us had early flights, so they go the spread out a little early. That small consideration was very much appreciated.  Everyone we dealt with at the hotel helped make being stranded a little less stressful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r314012450-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>314012450</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Everything We Expected</t>
+  </si>
+  <si>
+    <t>My family and I needed a place to stop and rest late at night while traveling back home. We wanted something nice, affordable, and with a hot breakfast so we could finish the rest of our drive in the morning without the need to stop anywhere else. After comparing prices and reading reviews, I called to check for availability and booked a room. Once we arrived, check in was quick, the room was nice and clean, the beds were soft and comfortable, and the breakfast in the morning had all that we wanted. My kids loved the Texas-shaped waffles and my husband was grateful for the hot sausage and biscuits with grhome.We never heard dogs barking but our room was on the opposite side from the kennel next door. There was a gas station across the street where we grabbed some drinks then hit the road home.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2015</t>
+  </si>
+  <si>
+    <t>My family and I needed a place to stop and rest late at night while traveling back home. We wanted something nice, affordable, and with a hot breakfast so we could finish the rest of our drive in the morning without the need to stop anywhere else. After comparing prices and reading reviews, I called to check for availability and booked a room. Once we arrived, check in was quick, the room was nice and clean, the beds were soft and comfortable, and the breakfast in the morning had all that we wanted. My kids loved the Texas-shaped waffles and my husband was grateful for the hot sausage and biscuits with grhome.We never heard dogs barking but our room was on the opposite side from the kennel next door. There was a gas station across the street where we grabbed some drinks then hit the road home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r312439294-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>312439294</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel and a reasonable price.</t>
+  </si>
+  <si>
+    <t>Very quick and simple check-in process.  I received everything I asked for in the note section when I booked online. The outside was clean and well lit. Plenty of parking, even for a late Saturday night. The room was clean, and the bed was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Very quick and simple check-in process.  I received everything I asked for in the note section when I booked online. The outside was clean and well lit. Plenty of parking, even for a late Saturday night. The room was clean, and the bed was very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r310994796-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>310994796</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Basic hotel</t>
+  </si>
+  <si>
+    <t>Park, Sleep, Fly- We tried this hotel since we usually have to stay over the night before our flight out of Houston. Our La Quinta JFK Blvd where we usually stay has changed it's policy so you have to pay for parking if you leave your car so it was time to try something new. This is a small older hotel. The staff was very nice &amp; the breakfast was the basic stuff with biscuits and gravy and waffle. The shuttle is 24 hours which is an improvement over La Quinta. It is a private company that does the 4 hotels at this intersection. They were on time and very nice. The hotel is next to a kennel but since they close the doors so dogs can't go outside at night it was not a problem. If you need to sleep during the day it would be a problem so ask for a room on the other side.The hotel could use some paint to freshen it up a bit but it is clean just old. They do not have a bathtub just a shower. If you are looking for just your basic clean bed with breakfast &amp; shuttle this will do. You have to go thru an outside agency, parksleepfly.com, for the parking rate. You don't pay hotel you put a deposit down and then the agency bills the rest after your stay. Just need to compare regular parking lot...Park, Sleep, Fly- We tried this hotel since we usually have to stay over the night before our flight out of Houston. Our La Quinta JFK Blvd where we usually stay has changed it's policy so you have to pay for parking if you leave your car so it was time to try something new. This is a small older hotel. The staff was very nice &amp; the breakfast was the basic stuff with biscuits and gravy and waffle. The shuttle is 24 hours which is an improvement over La Quinta. It is a private company that does the 4 hotels at this intersection. They were on time and very nice. The hotel is next to a kennel but since they close the doors so dogs can't go outside at night it was not a problem. If you need to sleep during the day it would be a problem so ask for a room on the other side.The hotel could use some paint to freshen it up a bit but it is clean just old. They do not have a bathtub just a shower. If you are looking for just your basic clean bed with breakfast &amp; shuttle this will do. You have to go thru an outside agency, parksleepfly.com, for the parking rate. You don't pay hotel you put a deposit down and then the agency bills the rest after your stay. Just need to compare regular parking lot rates and hotel rates to see what comes out cheaper.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Park, Sleep, Fly- We tried this hotel since we usually have to stay over the night before our flight out of Houston. Our La Quinta JFK Blvd where we usually stay has changed it's policy so you have to pay for parking if you leave your car so it was time to try something new. This is a small older hotel. The staff was very nice &amp; the breakfast was the basic stuff with biscuits and gravy and waffle. The shuttle is 24 hours which is an improvement over La Quinta. It is a private company that does the 4 hotels at this intersection. They were on time and very nice. The hotel is next to a kennel but since they close the doors so dogs can't go outside at night it was not a problem. If you need to sleep during the day it would be a problem so ask for a room on the other side.The hotel could use some paint to freshen it up a bit but it is clean just old. They do not have a bathtub just a shower. If you are looking for just your basic clean bed with breakfast &amp; shuttle this will do. You have to go thru an outside agency, parksleepfly.com, for the parking rate. You don't pay hotel you put a deposit down and then the agency bills the rest after your stay. Just need to compare regular parking lot...Park, Sleep, Fly- We tried this hotel since we usually have to stay over the night before our flight out of Houston. Our La Quinta JFK Blvd where we usually stay has changed it's policy so you have to pay for parking if you leave your car so it was time to try something new. This is a small older hotel. The staff was very nice &amp; the breakfast was the basic stuff with biscuits and gravy and waffle. The shuttle is 24 hours which is an improvement over La Quinta. It is a private company that does the 4 hotels at this intersection. They were on time and very nice. The hotel is next to a kennel but since they close the doors so dogs can't go outside at night it was not a problem. If you need to sleep during the day it would be a problem so ask for a room on the other side.The hotel could use some paint to freshen it up a bit but it is clean just old. They do not have a bathtub just a shower. If you are looking for just your basic clean bed with breakfast &amp; shuttle this will do. You have to go thru an outside agency, parksleepfly.com, for the parking rate. You don't pay hotel you put a deposit down and then the agency bills the rest after your stay. Just need to compare regular parking lot rates and hotel rates to see what comes out cheaper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r287907004-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>287907004</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Good &amp; Clean</t>
+  </si>
+  <si>
+    <t>As usual before choosing a hotel, I searched TA.  95% of the reviewers were very high on this hotel.  And I have to say they were correct.  This hotel  is very close to IAH, a very clean property inside and out.  It has all of the normal amenities, pool,workout room, conference room and free wifi and serving a typical hot and tasty breakfast menu.  We found the entire staff that we encountered to be very friendly and helpful.During checkout, I told the receptionist about a very loose toilet seat, waiting for an accident to happen.  This information was received and noted.  We would gladly stay at this property again. My wife &amp; I stayed one night while in town visiting friends.    MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>As usual before choosing a hotel, I searched TA.  95% of the reviewers were very high on this hotel.  And I have to say they were correct.  This hotel  is very close to IAH, a very clean property inside and out.  It has all of the normal amenities, pool,workout room, conference room and free wifi and serving a typical hot and tasty breakfast menu.  We found the entire staff that we encountered to be very friendly and helpful.During checkout, I told the receptionist about a very loose toilet seat, waiting for an accident to happen.  This information was received and noted.  We would gladly stay at this property again. My wife &amp; I stayed one night while in town visiting friends.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r287383064-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>287383064</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>My boys and I recently stayed here while my husband was in Houston for work. It was clean, well kept and the staff was very nice. The breakfast was the average/usual hotel breakfast. The pool was clean and nice and the beds were comfortable. If we are in town again, we will stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My boys and I recently stayed here while my husband was in Houston for work. It was clean, well kept and the staff was very nice. The breakfast was the average/usual hotel breakfast. The pool was clean and nice and the beds were comfortable. If we are in town again, we will stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r286241780-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>286241780</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Stayed here after a cancelled flight.</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night after a cancelled flight. I didn't see much of the hotel as it was 11pm at night and I was very tired, but the inside was very nice and seemed updated. The front desk was very nice and helpful and provided extra towels and toiletries to my large group. The Rocket Bus shuttle to the airport was nice, but did take longer to pick us up from the airport. I wish I had known of the Jack in the box next door though, as I realised as we were pulling out of the parking lot the next morning. A definiate stay, and for $100 it's a steal!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night after a cancelled flight. I didn't see much of the hotel as it was 11pm at night and I was very tired, but the inside was very nice and seemed updated. The front desk was very nice and helpful and provided extra towels and toiletries to my large group. The Rocket Bus shuttle to the airport was nice, but did take longer to pick us up from the airport. I wish I had known of the Jack in the box next door though, as I realised as we were pulling out of the parking lot the next morning. A definiate stay, and for $100 it's a steal!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r284278683-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>284278683</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Many positives</t>
+  </si>
+  <si>
+    <t>Extremely easy and close to return a rental car to IAH.  Was extremely clean, felt new, and Natasha at the front desk offered and followed up with a phone call when the room was ready. A niceity above and beyond. No wi fi issues although I had to sign in every day, but overall, easy to negotiate. Breakfast was predictable fare, but was more than enough. Jack in the Box next door easy to walk to, as was the gas station across the street. Felt it was excellent value for the reasonable cost.  It was right across the street from a 'parking spot' location and less than a mile from many sit down restaurants, including Cheddar's, where we had excellent service and a filling meal. Parking lot at the Sleep Inn was a tad on the modest side. Great way to avoid traffic. Just took one highway in to the airport but I understand they have a shuttle, too. Very satisfactory for the money. Very.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Extremely easy and close to return a rental car to IAH.  Was extremely clean, felt new, and Natasha at the front desk offered and followed up with a phone call when the room was ready. A niceity above and beyond. No wi fi issues although I had to sign in every day, but overall, easy to negotiate. Breakfast was predictable fare, but was more than enough. Jack in the Box next door easy to walk to, as was the gas station across the street. Felt it was excellent value for the reasonable cost.  It was right across the street from a 'parking spot' location and less than a mile from many sit down restaurants, including Cheddar's, where we had excellent service and a filling meal. Parking lot at the Sleep Inn was a tad on the modest side. Great way to avoid traffic. Just took one highway in to the airport but I understand they have a shuttle, too. Very satisfactory for the money. Very.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r281470542-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>281470542</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Nice, roomy and clean</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay at this hotel. We were here due to an International layover at the airport. Shuttle service was quick and easy. The receptionist was helpful and cordial. She gladly helped with additional toiletries due to our luggage being lost. Breakfast was typical but it was hot and tasty. Rooms are clean and very large. Very minimal airport noise, not even noticeable. Will stay again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay at this hotel. We were here due to an International layover at the airport. Shuttle service was quick and easy. The receptionist was helpful and cordial. She gladly helped with additional toiletries due to our luggage being lost. Breakfast was typical but it was hot and tasty. Rooms are clean and very large. Very minimal airport noise, not even noticeable. Will stay again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r277408235-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>277408235</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great deal </t>
+  </si>
+  <si>
+    <t>I had to stay close to the airport to avoid the traffic due to the floods. It was a good surprise. Price was good, the guys at the front desk were very helpful and kind, the room is very comfortable and there is a Jack in the Box right next to it. Breakfast was good and they have shuttle service every 30 minutes. The ATM machine does not work properly. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded June 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2015</t>
+  </si>
+  <si>
+    <t>I had to stay close to the airport to avoid the traffic due to the floods. It was a good surprise. Price was good, the guys at the front desk were very helpful and kind, the room is very comfortable and there is a Jack in the Box right next to it. Breakfast was good and they have shuttle service every 30 minutes. The ATM machine does not work properly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r273865933-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>273865933</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I've travel to many Sleep Inns and this one is among the best. Not only is this hotel conveniently near IAH airport there are plenty of places to eat nearby. Furthermore, there service is great, rooms are clean, even the pool was very clean. Typical hot breakfast served in the morning, but nice spacious and clean environment. Natasha at the front desk was very helpful and offered help to anything necessary to help my stay that much more enjoyable... Will stay again next time I'm in Houston MoreShow less</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded May 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2015</t>
+  </si>
+  <si>
+    <t>I've travel to many Sleep Inns and this one is among the best. Not only is this hotel conveniently near IAH airport there are plenty of places to eat nearby. Furthermore, there service is great, rooms are clean, even the pool was very clean. Typical hot breakfast served in the morning, but nice spacious and clean environment. Natasha at the front desk was very helpful and offered help to anything necessary to help my stay that much more enjoyable... Will stay again next time I'm in Houston More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r273831889-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>273831889</t>
+  </si>
+  <si>
+    <t>Unexpected Airport Jewel</t>
+  </si>
+  <si>
+    <t>We were sent here for an overnight stay by American Airlines when our flight from Houston to Philadelphia was cancelled.  My adult daughter was given a separate room and my wife and I stayed together.  The service was relaxed but professional and the staff made arrangements for a shuttle to pick us up for a 6:15 AM flight (our choice).  The rooms were spotless, large and comfortable   A continental breakfast was available, but we were long gone before it was served.  I never expected to write a review for this type of hotel stay, but the rooms, and the exceptional way we were treated are the reasons I write.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were sent here for an overnight stay by American Airlines when our flight from Houston to Philadelphia was cancelled.  My adult daughter was given a separate room and my wife and I stayed together.  The service was relaxed but professional and the staff made arrangements for a shuttle to pick us up for a 6:15 AM flight (our choice).  The rooms were spotless, large and comfortable   A continental breakfast was available, but we were long gone before it was served.  I never expected to write a review for this type of hotel stay, but the rooms, and the exceptional way we were treated are the reasons I write.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r262263946-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>262263946</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Great Price,Great Stay! I would stay again!</t>
+  </si>
+  <si>
+    <t>I found the room to be very spacious with many extra's Free parking free shuttle bus to and from Airport. They offered a breakfast with room . They had a small workout room,work center to print boarding passes check e-mails. The room was clean and nicely appointed with coffee micro fridge and safe. The front desk was very friendly and check in was a breeze. WE arrived late and we were hungry and right next door is a 24 hour Jack in the box ,we also noticed some restaurants across the street and up the block a bit.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>I found the room to be very spacious with many extra's Free parking free shuttle bus to and from Airport. They offered a breakfast with room . They had a small workout room,work center to print boarding passes check e-mails. The room was clean and nicely appointed with coffee micro fridge and safe. The front desk was very friendly and check in was a breeze. WE arrived late and we were hungry and right next door is a 24 hour Jack in the box ,we also noticed some restaurants across the street and up the block a bit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r254598315-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>254598315</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at Sleep Inn</t>
+  </si>
+  <si>
+    <t>We had no problem with the rocket shuttle from the airport. The staff was friendly and professional at both check in and check out. Our room was clean, modern, and had plenty of room for the four of us. The bath area and shower pressure was adequate. We had no problems with the kennel next door, we all slept fine. Cable and free WiFi worked fine. Breakfast was adequate and had both hot and cold items. We walked to the fast food next door and appreciated they were open late after our long and late flight in. For some reason my pics won't upload. We would stay again as we had a nice experience. With the staff, room, price, and location, it was a bargain for us factoring the free airport shuttle.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>We had no problem with the rocket shuttle from the airport. The staff was friendly and professional at both check in and check out. Our room was clean, modern, and had plenty of room for the four of us. The bath area and shower pressure was adequate. We had no problems with the kennel next door, we all slept fine. Cable and free WiFi worked fine. Breakfast was adequate and had both hot and cold items. We walked to the fast food next door and appreciated they were open late after our long and late flight in. For some reason my pics won't upload. We would stay again as we had a nice experience. With the staff, room, price, and location, it was a bargain for us factoring the free airport shuttle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r254332933-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>254332933</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Close to IAH</t>
+  </si>
+  <si>
+    <t>We got this hotel with points after jumping through hoops to do so. Choice hotels has a ridiculous policy of inside 30 days for reward nights and that along with soon expiring points and uncaring customer service made me walk a tightrope to get the reward night! Ok, now after getting it, the hotel is small but clean enough. The bed was a King and not bad but a little soft. Close to airport parking and convenient to airport. No tub here and the walk around the corner shower had the weakest water pressure imaginable , that and the fact of turning on the hot water 10 minutes before you want to get in for it to get hot!  Hotel was quiet and didn't experience the much discussed dog boarding noise. We had a room facing front. Someone had checked into that room but changed rooms, I guess because of the planes taking off (we enjoyed watching) and they had left 3 drink cups on the bedside table which wasn't checked before re-issuing room.  Have stayed in many hotels in this chain but will be giving loyalty somewhere else from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We got this hotel with points after jumping through hoops to do so. Choice hotels has a ridiculous policy of inside 30 days for reward nights and that along with soon expiring points and uncaring customer service made me walk a tightrope to get the reward night! Ok, now after getting it, the hotel is small but clean enough. The bed was a King and not bad but a little soft. Close to airport parking and convenient to airport. No tub here and the walk around the corner shower had the weakest water pressure imaginable , that and the fact of turning on the hot water 10 minutes before you want to get in for it to get hot!  Hotel was quiet and didn't experience the much discussed dog boarding noise. We had a room facing front. Someone had checked into that room but changed rooms, I guess because of the planes taking off (we enjoyed watching) and they had left 3 drink cups on the bedside table which wasn't checked before re-issuing room.  Have stayed in many hotels in this chain but will be giving loyalty somewhere else from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r251982431-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>251982431</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Alarm Clock of Dogs Barking</t>
+  </si>
+  <si>
+    <t>After being in flight for 8 hrs., I decided to stay here at 11:00p.m. due to the weather reported being bad. Exhausted, I was rudely awakened at 7:30 by numerous barking dogs seemingly outside my window. Looking outside I could see that about 10 dogs were being let out of the Pet Paradise ( a dog kennel) under my window and it was feeding time. Shocked and angry, I proceeded to check out of the hotel after I discussed my dissatisfaction with the alarm situation and asked to speak to the manager (Maria Biyarano). Initially I was told that she was not there yet. After insisting that I speak with her at least over the phone, I was refused again but listened as the front desk spoke with her. That person told me that the owner (Nick Patel) has an arrangement with the Pet Paradise ownership that they will not let the dogs out until 8. However, after I checked out I proceeded to go to the P.P. an inquire. The manager,Lynsey Hyns assured me that the deal was at 7:30 and not 8. When I asked Sleep Inn for a discount due to the dogs they only returned $25. The P.P. was located where it was not seen in the dark and as I came from the airport. Bad business all around. I was very dissappointed with the customer service. If you stay there do not stay on the...After being in flight for 8 hrs., I decided to stay here at 11:00p.m. due to the weather reported being bad. Exhausted, I was rudely awakened at 7:30 by numerous barking dogs seemingly outside my window. Looking outside I could see that about 10 dogs were being let out of the Pet Paradise ( a dog kennel) under my window and it was feeding time. Shocked and angry, I proceeded to check out of the hotel after I discussed my dissatisfaction with the alarm situation and asked to speak to the manager (Maria Biyarano). Initially I was told that she was not there yet. After insisting that I speak with her at least over the phone, I was refused again but listened as the front desk spoke with her. That person told me that the owner (Nick Patel) has an arrangement with the Pet Paradise ownership that they will not let the dogs out until 8. However, after I checked out I proceeded to go to the P.P. an inquire. The manager,Lynsey Hyns assured me that the deal was at 7:30 and not 8. When I asked Sleep Inn for a discount due to the dogs they only returned $25. The P.P. was located where it was not seen in the dark and as I came from the airport. Bad business all around. I was very dissappointed with the customer service. If you stay there do not stay on the  whole east side of the hotel or you too will be awakened at 7:30 by hungry-barking dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>After being in flight for 8 hrs., I decided to stay here at 11:00p.m. due to the weather reported being bad. Exhausted, I was rudely awakened at 7:30 by numerous barking dogs seemingly outside my window. Looking outside I could see that about 10 dogs were being let out of the Pet Paradise ( a dog kennel) under my window and it was feeding time. Shocked and angry, I proceeded to check out of the hotel after I discussed my dissatisfaction with the alarm situation and asked to speak to the manager (Maria Biyarano). Initially I was told that she was not there yet. After insisting that I speak with her at least over the phone, I was refused again but listened as the front desk spoke with her. That person told me that the owner (Nick Patel) has an arrangement with the Pet Paradise ownership that they will not let the dogs out until 8. However, after I checked out I proceeded to go to the P.P. an inquire. The manager,Lynsey Hyns assured me that the deal was at 7:30 and not 8. When I asked Sleep Inn for a discount due to the dogs they only returned $25. The P.P. was located where it was not seen in the dark and as I came from the airport. Bad business all around. I was very dissappointed with the customer service. If you stay there do not stay on the...After being in flight for 8 hrs., I decided to stay here at 11:00p.m. due to the weather reported being bad. Exhausted, I was rudely awakened at 7:30 by numerous barking dogs seemingly outside my window. Looking outside I could see that about 10 dogs were being let out of the Pet Paradise ( a dog kennel) under my window and it was feeding time. Shocked and angry, I proceeded to check out of the hotel after I discussed my dissatisfaction with the alarm situation and asked to speak to the manager (Maria Biyarano). Initially I was told that she was not there yet. After insisting that I speak with her at least over the phone, I was refused again but listened as the front desk spoke with her. That person told me that the owner (Nick Patel) has an arrangement with the Pet Paradise ownership that they will not let the dogs out until 8. However, after I checked out I proceeded to go to the P.P. an inquire. The manager,Lynsey Hyns assured me that the deal was at 7:30 and not 8. When I asked Sleep Inn for a discount due to the dogs they only returned $25. The P.P. was located where it was not seen in the dark and as I came from the airport. Bad business all around. I was very dissappointed with the customer service. If you stay there do not stay on the  whole east side of the hotel or you too will be awakened at 7:30 by hungry-barking dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r239035523-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>239035523</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Overpriced</t>
+  </si>
+  <si>
+    <t>The hotel was in a great location and offered a nice park and fly option. However, it did cost us more than nearby hotels for some reason. The driver of the park and fly buses (Rocket) was not the friendliest and drove as if we were in a Nascar race. The clerk at the desk was very friendly and made the stay nice. The breakfast attendant could use a lesson in manners as she was not too friendly to my fiance (wife).MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Maria B, General Manager at Sleep Inn &amp; Suites Bush Intercontinental Airport IAH East, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was in a great location and offered a nice park and fly option. However, it did cost us more than nearby hotels for some reason. The driver of the park and fly buses (Rocket) was not the friendliest and drove as if we were in a Nascar race. The clerk at the desk was very friendly and made the stay nice. The breakfast attendant could use a lesson in manners as she was not too friendly to my fiance (wife).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r236847790-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>236847790</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Transit to Flights</t>
+  </si>
+  <si>
+    <t>The motel is situated close to airport. We were collected by shuttle and given help by driver.Check in very helpful with return shuttle booked upon arrival.Room clean and roomy. A good place to stay overnight when transferring for flights.MoreShow less</t>
+  </si>
+  <si>
+    <t>The motel is situated close to airport. We were collected by shuttle and given help by driver.Check in very helpful with return shuttle booked upon arrival.Room clean and roomy. A good place to stay overnight when transferring for flights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r234556786-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>234556786</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Better than the airport chairs but...</t>
+  </si>
+  <si>
+    <t>When my flight was delayed, I looked at the four star rating on tripadvisor and was happy that we'd been sent to a place with good ratings. When I entered the hotel, I realized that this was one of the rare occasions when the tripadvisor ratings were not the reality. We started by waiting more than one hour at the airport for the Rocket Parking shuttle, which then crammed more than double the legal number of people into the bus. The bus bottomed out many times along the way and people were doing their best to remain standing, although the sign clearly said not to stand while in motion. There was no other choice.
+The girl working at the desk when we arrived in the evening was very nice and doing her best to field the constant calls from people waiting for their very delayed shuttles. People were told 10-15 minutes, but it really was more than an hour. Of course, this is beyond her control and she was just relaying what she had been told. 
+I thought I would do some laundry and sit in the jacuzzi while the laundry washed. When I went to the room with the Guest Laundry sign, there was only a vending machine and an ice machine. I asked at the front desk about the laundry area and was told that new ones never came. I looked more closely in that space and realized...When my flight was delayed, I looked at the four star rating on tripadvisor and was happy that we'd been sent to a place with good ratings. When I entered the hotel, I realized that this was one of the rare occasions when the tripadvisor ratings were not the reality. We started by waiting more than one hour at the airport for the Rocket Parking shuttle, which then crammed more than double the legal number of people into the bus. The bus bottomed out many times along the way and people were doing their best to remain standing, although the sign clearly said not to stand while in motion. There was no other choice.The girl working at the desk when we arrived in the evening was very nice and doing her best to field the constant calls from people waiting for their very delayed shuttles. People were told 10-15 minutes, but it really was more than an hour. Of course, this is beyond her control and she was just relaying what she had been told. I thought I would do some laundry and sit in the jacuzzi while the laundry washed. When I went to the room with the Guest Laundry sign, there was only a vending machine and an ice machine. I asked at the front desk about the laundry area and was told that new ones never came. I looked more closely in that space and realized the hookups were there but the machines were gone. OK, no laundry. I'll just go in the jacuzzi. I went outside to check out the jacuzzi, only to find it in disrepair with no water! Really? Why was I not surprised at that point?I took a shower instead and was thankful I had my flip flops. This was the first time I wore them into a hotel shower and hopefully the last! I went to bed in the sagging bed with the tiny pillows (as reported in other reviews) and in the morning I woke up with swollen eyes and a scratchy throat. I have allergies and clearly my body did not like this place.I thought I would get some breakfast. Bad choice! Ick. I drank some orange juice and then promptly left after watching a man sneeze right into the toaster. The attendant saw this happen but did nothing to correct it. She seemed to not even realize it might be a problem. At that point, I got my stuff and got ready to get the shuttle out of there. The morning front desk clerk was not pleasant like the evening clerk. She probably wasn't trying to be rude -- it's just her personality. She obviously was not trained in guest services.I give it two stars just because it was somewhat better than staying in the airport and because the girl working the desk on Monday night was so nice and trying so hard. I hope she is able to get a job at a better place soon. She did not deserve to be in that situation and neither did the stranded airline passengers.MoreShow less</t>
+  </si>
+  <si>
+    <t>When my flight was delayed, I looked at the four star rating on tripadvisor and was happy that we'd been sent to a place with good ratings. When I entered the hotel, I realized that this was one of the rare occasions when the tripadvisor ratings were not the reality. We started by waiting more than one hour at the airport for the Rocket Parking shuttle, which then crammed more than double the legal number of people into the bus. The bus bottomed out many times along the way and people were doing their best to remain standing, although the sign clearly said not to stand while in motion. There was no other choice.
+The girl working at the desk when we arrived in the evening was very nice and doing her best to field the constant calls from people waiting for their very delayed shuttles. People were told 10-15 minutes, but it really was more than an hour. Of course, this is beyond her control and she was just relaying what she had been told. 
+I thought I would do some laundry and sit in the jacuzzi while the laundry washed. When I went to the room with the Guest Laundry sign, there was only a vending machine and an ice machine. I asked at the front desk about the laundry area and was told that new ones never came. I looked more closely in that space and realized...When my flight was delayed, I looked at the four star rating on tripadvisor and was happy that we'd been sent to a place with good ratings. When I entered the hotel, I realized that this was one of the rare occasions when the tripadvisor ratings were not the reality. We started by waiting more than one hour at the airport for the Rocket Parking shuttle, which then crammed more than double the legal number of people into the bus. The bus bottomed out many times along the way and people were doing their best to remain standing, although the sign clearly said not to stand while in motion. There was no other choice.The girl working at the desk when we arrived in the evening was very nice and doing her best to field the constant calls from people waiting for their very delayed shuttles. People were told 10-15 minutes, but it really was more than an hour. Of course, this is beyond her control and she was just relaying what she had been told. I thought I would do some laundry and sit in the jacuzzi while the laundry washed. When I went to the room with the Guest Laundry sign, there was only a vending machine and an ice machine. I asked at the front desk about the laundry area and was told that new ones never came. I looked more closely in that space and realized the hookups were there but the machines were gone. OK, no laundry. I'll just go in the jacuzzi. I went outside to check out the jacuzzi, only to find it in disrepair with no water! Really? Why was I not surprised at that point?I took a shower instead and was thankful I had my flip flops. This was the first time I wore them into a hotel shower and hopefully the last! I went to bed in the sagging bed with the tiny pillows (as reported in other reviews) and in the morning I woke up with swollen eyes and a scratchy throat. I have allergies and clearly my body did not like this place.I thought I would get some breakfast. Bad choice! Ick. I drank some orange juice and then promptly left after watching a man sneeze right into the toaster. The attendant saw this happen but did nothing to correct it. She seemed to not even realize it might be a problem. At that point, I got my stuff and got ready to get the shuttle out of there. The morning front desk clerk was not pleasant like the evening clerk. She probably wasn't trying to be rude -- it's just her personality. She obviously was not trained in guest services.I give it two stars just because it was somewhat better than staying in the airport and because the girl working the desk on Monday night was so nice and trying so hard. I hope she is able to get a job at a better place soon. She did not deserve to be in that situation and neither did the stranded airline passengers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r224038173-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>224038173</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Clean-Close-Comfortable</t>
+  </si>
+  <si>
+    <t>5 minutes from the airport. Newer property that is very well kept and clean.Free continental breakfast every day with some 24/7 fast foods places right next door or across the street. Waffle House, Exxon Mart, Jack-in-the-Box 24/7  so you won't starve no matter what time you get there or leave.Some of the rooms are Suite rooms that are really roomy with a sofa, refrigerator, recliner, and King size bed.All are nice.Van service to the airport is by reservation every 30 minutes so you have to plan accordingly. Free WIFI, good cable selection, flat screen TV, and a bigger than normal size refrigerator with freezer section in every room.Multiple stays at this location without issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>5 minutes from the airport. Newer property that is very well kept and clean.Free continental breakfast every day with some 24/7 fast foods places right next door or across the street. Waffle House, Exxon Mart, Jack-in-the-Box 24/7  so you won't starve no matter what time you get there or leave.Some of the rooms are Suite rooms that are really roomy with a sofa, refrigerator, recliner, and King size bed.All are nice.Van service to the airport is by reservation every 30 minutes so you have to plan accordingly. Free WIFI, good cable selection, flat screen TV, and a bigger than normal size refrigerator with freezer section in every room.Multiple stays at this location without issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r219136754-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>219136754</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Problems, problems, problems......</t>
+  </si>
+  <si>
+    <t>Phone not working, elevator not working, outlets broken- bare cords handing out, bath had mold, shower just a trickle!  "Free Shuttle" not from this hotel.  Had to drop off numerous people in a long term parking lot before reaching the hotel.  No ice or snack machines on second floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phone not working, elevator not working, outlets broken- bare cords handing out, bath had mold, shower just a trickle!  "Free Shuttle" not from this hotel.  Had to drop off numerous people in a long term parking lot before reaching the hotel.  No ice or snack machines on second floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r217161270-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>217161270</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>SAME AS WE REMEMBERED!</t>
+  </si>
+  <si>
+    <t>When I say the same I mean almost identical!  Same room (219) and same missing wall plate over the outlet, from two years ago... We chose this location because it was only a couple of miles from Turner Stadium. Our prior stay in 2012, was good and I gave this property a rating of 4.
+This time I must say, there was one issue that started us off on a bad note. AND IT JUST GOT WORSE! Our flight was delayed, from Baltimore, MD, so I called to inform the staff of possibly not arriving until the following day. We simply wanted to ensure that our room would be available and that we could check in early the following day if needed.
+Rita, who was working the front desk, answered the phone... I explained what was going on,and received a truly unprofessional attitude, almost blowing us off. We were simply told, you'll have to pay either way and the room wouldn't be guaranteed, and would have to cancel if we didn't want to incur a charge.
+The problem was, we did not know if the flight was going to be delayed again or cancelled until the following morning. As Choice Hotel Elite Gold members, I was very displeased!  After asking for a manger, and being told there were none on duty, we were told to call back when we knew about our flight and maybe the manager could assist us....When I say the same I mean almost identical!  Same room (219) and same missing wall plate over the outlet, from two years ago... We chose this location because it was only a couple of miles from Turner Stadium. Our prior stay in 2012, was good and I gave this property a rating of 4.This time I must say, there was one issue that started us off on a bad note. AND IT JUST GOT WORSE! Our flight was delayed, from Baltimore, MD, so I called to inform the staff of possibly not arriving until the following day. We simply wanted to ensure that our room would be available and that we could check in early the following day if needed.Rita, who was working the front desk, answered the phone... I explained what was going on,and received a truly unprofessional attitude, almost blowing us off. We were simply told, you'll have to pay either way and the room wouldn't be guaranteed, and would have to cancel if we didn't want to incur a charge.The problem was, we did not know if the flight was going to be delayed again or cancelled until the following morning. As Choice Hotel Elite Gold members, I was very displeased!  After asking for a manger, and being told there were none on duty, we were told to call back when we knew about our flight and maybe the manager could assist us.  She eventually said she would have a manager to contact us, but that never happened.We finally got into town about 1:30am Saturday and everything was great. After checking in and heading up to our room, we noticed the "infamous missing wall plate" (which we mentioned 2 years ago in a prior review).  I promptly went down to the front desk and requested that it be fixed, especially since we were traveling with kids (the main concern was our 5 year old).  Tammy, at the Front desk was great and said it would be handled in the morning when Maintenance was on duty.  Later, Tammy asked if maintenance had come to fix it yet... Unfortunately, I had to say no!  She assured us that it had been mentioned and would follow-up again.  The next day came and went, but still no wall plate.  It wasn't until Monday evening, that the manger came up, AFTER my wife mentioned it again.  The manager said that he had come to fix it, and asked if it was the CRACKED PLATE behind the sofa...(WHY WOULD I LOOK BEHIND THE SOFA?... This wall plate we referred to was not blocked by anything).  It's a wonder the place isn't falling apart, with the way things get fixed ;)Other CONS:-Mold in the corners of the bathroom tub-2nd floor Hallways are hotter than outside... why 90 degrees when you have A/C?  and the windows were open-Freezer in the mini fridge was not working properly-The A/C at one point just stopped working in our room, and then I had to reset it.-Toilet was stopped up at one point... Front desk needed to call the manager???  We fixed that problem without their help.-lackluster hot items for breakfast selection (there's only so many powdered eggs and greasy bacon/sausage one can eat.The stay was not ALL bad... Tammy was very pleasant and helpful; the beds were comfortable and we had plenty of space in the room for our family of five.(2 adults/3kids)The kids had a blast in the pool, the hot tub was warm and I still love the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I say the same I mean almost identical!  Same room (219) and same missing wall plate over the outlet, from two years ago... We chose this location because it was only a couple of miles from Turner Stadium. Our prior stay in 2012, was good and I gave this property a rating of 4.
+This time I must say, there was one issue that started us off on a bad note. AND IT JUST GOT WORSE! Our flight was delayed, from Baltimore, MD, so I called to inform the staff of possibly not arriving until the following day. We simply wanted to ensure that our room would be available and that we could check in early the following day if needed.
+Rita, who was working the front desk, answered the phone... I explained what was going on,and received a truly unprofessional attitude, almost blowing us off. We were simply told, you'll have to pay either way and the room wouldn't be guaranteed, and would have to cancel if we didn't want to incur a charge.
+The problem was, we did not know if the flight was going to be delayed again or cancelled until the following morning. As Choice Hotel Elite Gold members, I was very displeased!  After asking for a manger, and being told there were none on duty, we were told to call back when we knew about our flight and maybe the manager could assist us....When I say the same I mean almost identical!  Same room (219) and same missing wall plate over the outlet, from two years ago... We chose this location because it was only a couple of miles from Turner Stadium. Our prior stay in 2012, was good and I gave this property a rating of 4.This time I must say, there was one issue that started us off on a bad note. AND IT JUST GOT WORSE! Our flight was delayed, from Baltimore, MD, so I called to inform the staff of possibly not arriving until the following day. We simply wanted to ensure that our room would be available and that we could check in early the following day if needed.Rita, who was working the front desk, answered the phone... I explained what was going on,and received a truly unprofessional attitude, almost blowing us off. We were simply told, you'll have to pay either way and the room wouldn't be guaranteed, and would have to cancel if we didn't want to incur a charge.The problem was, we did not know if the flight was going to be delayed again or cancelled until the following morning. As Choice Hotel Elite Gold members, I was very displeased!  After asking for a manger, and being told there were none on duty, we were told to call back when we knew about our flight and maybe the manager could assist us.  She eventually said she would have a manager to contact us, but that never happened.We finally got into town about 1:30am Saturday and everything was great. After checking in and heading up to our room, we noticed the "infamous missing wall plate" (which we mentioned 2 years ago in a prior review).  I promptly went down to the front desk and requested that it be fixed, especially since we were traveling with kids (the main concern was our 5 year old).  Tammy, at the Front desk was great and said it would be handled in the morning when Maintenance was on duty.  Later, Tammy asked if maintenance had come to fix it yet... Unfortunately, I had to say no!  She assured us that it had been mentioned and would follow-up again.  The next day came and went, but still no wall plate.  It wasn't until Monday evening, that the manger came up, AFTER my wife mentioned it again.  The manager said that he had come to fix it, and asked if it was the CRACKED PLATE behind the sofa...(WHY WOULD I LOOK BEHIND THE SOFA?... This wall plate we referred to was not blocked by anything).  It's a wonder the place isn't falling apart, with the way things get fixed ;)Other CONS:-Mold in the corners of the bathroom tub-2nd floor Hallways are hotter than outside... why 90 degrees when you have A/C?  and the windows were open-Freezer in the mini fridge was not working properly-The A/C at one point just stopped working in our room, and then I had to reset it.-Toilet was stopped up at one point... Front desk needed to call the manager???  We fixed that problem without their help.-lackluster hot items for breakfast selection (there's only so many powdered eggs and greasy bacon/sausage one can eat.The stay was not ALL bad... Tammy was very pleasant and helpful; the beds were comfortable and we had plenty of space in the room for our family of five.(2 adults/3kids)The kids had a blast in the pool, the hot tub was warm and I still love the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r203446630-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>203446630</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Served it's purpose nicely</t>
+  </si>
+  <si>
+    <t>Served it's purpose nicely after a 21 hour air journey and tired as one can imagine. Got a decent night's rest on a comfortable clean bed. WiFi worked ok. Shower was good. breakfast is very basic and high on the sugar count nary a piece of fruit in sight..are you watching mr. manager? shuttle to / fro by rocket parking is really good and efficient. never heard the barking dogs mentioned by other review. the kennels are there at the back, but not an issue for this traveller</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r199566189-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>199566189</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great location. Clean nice and great customer service. Looks like a brand new Hotel. Surely would be back for my next stay for my next trip to Houston. Its a plus that they have a free shuttle which is every 30 min to and from Airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r199057253-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>199057253</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Poor Location, Policy, and Customer Service</t>
+  </si>
+  <si>
+    <t>This hotel backs up to a dog kennel with barking dogs. They are inside between 830pm and 700am. Sleeping past 700 is not an option. Furthermore, if you want to move to a quiet room, you must pay an upgrade fee to move across the hall. My roomed smelled stale and like mold. No customer service at this place. You may not cancel your reservation if you are not satisfied with your quarters. Front desk employee had flat affect, no negotiation skills, or customer service skills.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r196594691-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>196594691</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>Just fantastic</t>
+  </si>
+  <si>
+    <t>My wife and I got stuck in Houston after a canceled flight and United put us in this place.  I thought it would be another mediocre airport hotel.  In fact everything was perfect.  The airport shuttle was immediate and quick. The check in lady was excellent both on the phone from the airport and at check in. The room was spotless (I have no idea what the mold report was about in another review). The room was great with new excellent furniture - kind of classy actually - and the bed so comfortable. The bathroom was beautiful.  Breakfast was excellent (continental) and the ride to the airport was fine too.  Altogether we were delighted and wish we could have gotten a later flight and had a long sleep in.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>My wife and I got stuck in Houston after a canceled flight and United put us in this place.  I thought it would be another mediocre airport hotel.  In fact everything was perfect.  The airport shuttle was immediate and quick. The check in lady was excellent both on the phone from the airport and at check in. The room was spotless (I have no idea what the mold report was about in another review). The room was great with new excellent furniture - kind of classy actually - and the bed so comfortable. The bathroom was beautiful.  Breakfast was excellent (continental) and the ride to the airport was fine too.  Altogether we were delighted and wish we could have gotten a later flight and had a long sleep in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r196448260-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>196448260</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>Great room! Minutes from Airport.</t>
+  </si>
+  <si>
+    <t>This is the second time we stayed at this hotel.  Our main reason was to be close to the airport.  Though we didn't need to use it, they do offer airport shuttle.  The room was very clean and nicely decorated. The bed was extremely comfy! Breakfast was good.  The young lady at the front desk was pleasant and helpful.  If you drove and would like to escape to a wonderful park setting about 10 minutes away, head to Jesse H. Jones Park and Nature Reserve.  It has wonderful trails, bird feeders, a picnic area and education building.  We will stay at this hotel anytime we are in the Houston area!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the second time we stayed at this hotel.  Our main reason was to be close to the airport.  Though we didn't need to use it, they do offer airport shuttle.  The room was very clean and nicely decorated. The bed was extremely comfy! Breakfast was good.  The young lady at the front desk was pleasant and helpful.  If you drove and would like to escape to a wonderful park setting about 10 minutes away, head to Jesse H. Jones Park and Nature Reserve.  It has wonderful trails, bird feeders, a picnic area and education building.  We will stay at this hotel anytime we are in the Houston area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r191510771-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>191510771</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Customer service after a long hard day</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here one night when we missed our flight home. It had been a harrowing day, we were exhausted and close to 11pm. The airline sent us to this hotel and we could not have been happier (except if we had gotten home!). The front desk person was an absolute savior on every level. She was extremely kind and sympathetic with our plight. She suggested restaurants, gave us all of the amenities and helped with everything.The bed was comfortable and the room was nicely decorated. It was also very quiet which we appreciated. The breakfast was good, nothing spectacular. I appreciated the fruit which I could take with me on the first shuttle to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here one night when we missed our flight home. It had been a harrowing day, we were exhausted and close to 11pm. The airline sent us to this hotel and we could not have been happier (except if we had gotten home!). The front desk person was an absolute savior on every level. She was extremely kind and sympathetic with our plight. She suggested restaurants, gave us all of the amenities and helped with everything.The bed was comfortable and the room was nicely decorated. It was also very quiet which we appreciated. The breakfast was good, nothing spectacular. I appreciated the fruit which I could take with me on the first shuttle to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r178310515-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>178310515</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Wonderful place to sleep, park &amp; fly!</t>
+  </si>
+  <si>
+    <t>I'm always apprehensive about leaving the car at a hotel while off for some time. Faced with this  fear, I devoured the Tripadvisor reviews to see if I could get a feel for where we could have a good night's sleep and safely leave our car for nearly two weeks. BINGO! Found Sleep Inn! Easy to get to, but still kinda away from the beaten path.....a great location. Contrary to what some reviewers have said about noise from a dog kennel nearby, we heard nothing. The room was very clean and modern, bed extremely comfortable, phenomenal AC, and the 3am wake-up call was right on time. Can't say anything about breakfast because we left the hotel at 4:30. OK........this is ANOTHER great feature of the Sleep Inn.......you can get free shuttle service 24 hours a day. So, if you have an extremely early flight like us.........no worry. After 12 days, we picked up our suitcases, called the hotel, and they sent the shuttle. Our car?!? Waiting for us just as we left it a dozen days before. Ahhhhhh!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I'm always apprehensive about leaving the car at a hotel while off for some time. Faced with this  fear, I devoured the Tripadvisor reviews to see if I could get a feel for where we could have a good night's sleep and safely leave our car for nearly two weeks. BINGO! Found Sleep Inn! Easy to get to, but still kinda away from the beaten path.....a great location. Contrary to what some reviewers have said about noise from a dog kennel nearby, we heard nothing. The room was very clean and modern, bed extremely comfortable, phenomenal AC, and the 3am wake-up call was right on time. Can't say anything about breakfast because we left the hotel at 4:30. OK........this is ANOTHER great feature of the Sleep Inn.......you can get free shuttle service 24 hours a day. So, if you have an extremely early flight like us.........no worry. After 12 days, we picked up our suitcases, called the hotel, and they sent the shuttle. Our car?!? Waiting for us just as we left it a dozen days before. Ahhhhhh!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r172290032-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>172290032</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Great Sleep Inn of Humble, TX</t>
+  </si>
+  <si>
+    <t>On October 18, 2012, I arrived a day early for a cousin's wedding.  I found this Sleep Inn in Humble to be very nice.  The decor was very nice and very inviting.  The room was clean and comfortable.  This hotel is a must stay.  The price was right and the hotel was centrally located.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r166530236-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>166530236</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>Hotel was ok . We checked in at 2:30pm dropped off luggage and returned at midnight no problems. We were awakened at 7:45 am with dogs barking continuously for about a 45 minutes straight.we were not aware there is a dog kennel or dog daycare located directly on the side of this hotel. When we checked in we heard no barking and when we entered the room the curtains were closed. We called the front desk and we were extremely upset at the clerks remarks. We were told we didn't have a problem with it the day before and there was nothing they could do about it in a very rude tone . We told him we would call the customer service and his reply was go for it . Never again !MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Hotel was ok . We checked in at 2:30pm dropped off luggage and returned at midnight no problems. We were awakened at 7:45 am with dogs barking continuously for about a 45 minutes straight.we were not aware there is a dog kennel or dog daycare located directly on the side of this hotel. When we checked in we heard no barking and when we entered the room the curtains were closed. We called the front desk and we were extremely upset at the clerks remarks. We were told we didn't have a problem with it the day before and there was nothing they could do about it in a very rude tone . We told him we would call the customer service and his reply was go for it . Never again !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r158775820-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>158775820</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Unfortunately, won't go back here</t>
+  </si>
+  <si>
+    <t>I booked this hotel it because of its proximity to the airport, but will chose another hotel next time. The front desk staff were just okay, weren't very receptive to any normal questions about nearby places to eat, etc. The room and bathroom weren't very clean. It seems to be in need of a deep cleaning and facelift. The hairdryer in my room didn't work, the front desk seemed to be aware of this and gave me a portable, not a big deal, but no apology and made me feel like I was bothering them to even bring it up. The price was over $100 after tax and with a AAA discount. It wasn't horrible, but I will be staying somewhere else next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I booked this hotel it because of its proximity to the airport, but will chose another hotel next time. The front desk staff were just okay, weren't very receptive to any normal questions about nearby places to eat, etc. The room and bathroom weren't very clean. It seems to be in need of a deep cleaning and facelift. The hairdryer in my room didn't work, the front desk seemed to be aware of this and gave me a portable, not a big deal, but no apology and made me feel like I was bothering them to even bring it up. The price was over $100 after tax and with a AAA discount. It wasn't horrible, but I will be staying somewhere else next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r158608222-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>158608222</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Not the friendliest</t>
+  </si>
+  <si>
+    <t>We booked this hotel as an overnighter between legs of a flight from Great Falls to Honduras.  Our booking was made online.
+After a long flight to Houston we arrived at the hotel and the clerk's first words to us were "well, the online agencies don't know what our availability is".  Pardon?  He hadn't even looked at his computer yet!  We showed him our confirmation sheet and he did find our reservation.  
+After this initial "greeting", we got settled in the room and all was fine.  The room was certainly comfortable and clean and the beds were comfortable and clean. The shuttle to/from the airport is handled by Rocket, which does park and fly service from across the road from the hotel. The hotel didn't seem busy at all, and seemed to cater mainly to work crews.
+There was a decided lack of amenities in the area, which is strange given the number of hotels around. Only three restaurants - Jack in the Box and then across the highway were Sonic Drive-in and Waffle House.  Not a big deal for an overnighter, but a little disappointing, and it was more than a little hairy getting across the highway given that the walk lights don't work there.
+We asked for a wake up call and did not get it.  We also asked at the desk for bedding for the pull-out sofa and did not get it, we had to phone down...We booked this hotel as an overnighter between legs of a flight from Great Falls to Honduras.  Our booking was made online.After a long flight to Houston we arrived at the hotel and the clerk's first words to us were "well, the online agencies don't know what our availability is".  Pardon?  He hadn't even looked at his computer yet!  We showed him our confirmation sheet and he did find our reservation.  After this initial "greeting", we got settled in the room and all was fine.  The room was certainly comfortable and clean and the beds were comfortable and clean. The shuttle to/from the airport is handled by Rocket, which does park and fly service from across the road from the hotel. The hotel didn't seem busy at all, and seemed to cater mainly to work crews.There was a decided lack of amenities in the area, which is strange given the number of hotels around. Only three restaurants - Jack in the Box and then across the highway were Sonic Drive-in and Waffle House.  Not a big deal for an overnighter, but a little disappointing, and it was more than a little hairy getting across the highway given that the walk lights don't work there.We asked for a wake up call and did not get it.  We also asked at the desk for bedding for the pull-out sofa and did not get it, we had to phone down later and ask for it again.Given the clerk's reaction to our online booking, we warned him that we would be back on the return leg - hinting for him to have our reservation ready without complaint.On our return trip, things went a little smoother, although we were then warned when we checked in, not to slam the door.  I found this a little off-putting given that we don't generally slam the doors and if the door has an issue, it should be fixed rather than telling guests not to slam it.Both times we phoned the hotel from the airport to arrange shuttle pick up, we were given incorrect directions on where to find the shuttle.  If they don't know, then they should just not say.  One time we were directed to cross the street and go to terminal C.  When in fact we were in terminal E and had merely to step outside the door we were at.As well, both times, the clerks at check-out had problems with the computer and difficulty producing and printing our invoice.I would still say this hotel is good for the convenience, near the airport,  but be aware that you are not getting top notch service here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>We booked this hotel as an overnighter between legs of a flight from Great Falls to Honduras.  Our booking was made online.
+After a long flight to Houston we arrived at the hotel and the clerk's first words to us were "well, the online agencies don't know what our availability is".  Pardon?  He hadn't even looked at his computer yet!  We showed him our confirmation sheet and he did find our reservation.  
+After this initial "greeting", we got settled in the room and all was fine.  The room was certainly comfortable and clean and the beds were comfortable and clean. The shuttle to/from the airport is handled by Rocket, which does park and fly service from across the road from the hotel. The hotel didn't seem busy at all, and seemed to cater mainly to work crews.
+There was a decided lack of amenities in the area, which is strange given the number of hotels around. Only three restaurants - Jack in the Box and then across the highway were Sonic Drive-in and Waffle House.  Not a big deal for an overnighter, but a little disappointing, and it was more than a little hairy getting across the highway given that the walk lights don't work there.
+We asked for a wake up call and did not get it.  We also asked at the desk for bedding for the pull-out sofa and did not get it, we had to phone down...We booked this hotel as an overnighter between legs of a flight from Great Falls to Honduras.  Our booking was made online.After a long flight to Houston we arrived at the hotel and the clerk's first words to us were "well, the online agencies don't know what our availability is".  Pardon?  He hadn't even looked at his computer yet!  We showed him our confirmation sheet and he did find our reservation.  After this initial "greeting", we got settled in the room and all was fine.  The room was certainly comfortable and clean and the beds were comfortable and clean. The shuttle to/from the airport is handled by Rocket, which does park and fly service from across the road from the hotel. The hotel didn't seem busy at all, and seemed to cater mainly to work crews.There was a decided lack of amenities in the area, which is strange given the number of hotels around. Only three restaurants - Jack in the Box and then across the highway were Sonic Drive-in and Waffle House.  Not a big deal for an overnighter, but a little disappointing, and it was more than a little hairy getting across the highway given that the walk lights don't work there.We asked for a wake up call and did not get it.  We also asked at the desk for bedding for the pull-out sofa and did not get it, we had to phone down later and ask for it again.Given the clerk's reaction to our online booking, we warned him that we would be back on the return leg - hinting for him to have our reservation ready without complaint.On our return trip, things went a little smoother, although we were then warned when we checked in, not to slam the door.  I found this a little off-putting given that we don't generally slam the doors and if the door has an issue, it should be fixed rather than telling guests not to slam it.Both times we phoned the hotel from the airport to arrange shuttle pick up, we were given incorrect directions on where to find the shuttle.  If they don't know, then they should just not say.  One time we were directed to cross the street and go to terminal C.  When in fact we were in terminal E and had merely to step outside the door we were at.As well, both times, the clerks at check-out had problems with the computer and difficulty producing and printing our invoice.I would still say this hotel is good for the convenience, near the airport,  but be aware that you are not getting top notch service here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r157968804-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>157968804</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Perfect Hotel for the Purpose</t>
+  </si>
+  <si>
+    <t>My teen son and I became "distressed passengers" and had to locate a hotel near the Houston Intercontinental Airport in a hurry.  They made a reservation for us quickly and sent a courtesy van to pick us up.  The hotel is not near much - but for our short stay this was not a problem.  There was a gas station with a mini grocery as well as a Jack-In-The-Box nearby.  Our room was clean!  The beds were comfortable as were the pillows.  I requested a shuttle bus return in the morning back to the airport.  The front desk called my room in the morning to inform me that the bus was available when I was ready!  I will stay at this hotel again in the future when making connections through Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>My teen son and I became "distressed passengers" and had to locate a hotel near the Houston Intercontinental Airport in a hurry.  They made a reservation for us quickly and sent a courtesy van to pick us up.  The hotel is not near much - but for our short stay this was not a problem.  There was a gas station with a mini grocery as well as a Jack-In-The-Box nearby.  Our room was clean!  The beds were comfortable as were the pillows.  I requested a shuttle bus return in the morning back to the airport.  The front desk called my room in the morning to inform me that the bus was available when I was ready!  I will stay at this hotel again in the future when making connections through Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r155410059-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>155410059</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Convenient to the Airport</t>
+  </si>
+  <si>
+    <t>Booked this prior to an early morning flight the next day.  The hotel is well taken care of, rooms large and clean.  Our reservation was made through the Park-Sleep-Fly website, but on check in there was no reservation.  The staff had rooms so gave us the same deal that we would have gotten had the reservation gone through, very nice.  Found out later that the date on the PSF reservation was wrong, and emailed the manager, Nick, from Japan to ask to cancel the reservation to avoid the deposit requirement.  This he did after two emails, and advised he was going to charge for the extra days parking, which was not a problem, until he charged us the wrong rate.  He would not answer follow up emails to explain the parking rate difference.  We contested the charges on our CC, submitting paperwork to prove the rate was wrong, and the excess parking charge was removed.  Not sure we would stay here again due to the manager not responding to our follow up emails and charging us the wrong rate for the excess parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked this prior to an early morning flight the next day.  The hotel is well taken care of, rooms large and clean.  Our reservation was made through the Park-Sleep-Fly website, but on check in there was no reservation.  The staff had rooms so gave us the same deal that we would have gotten had the reservation gone through, very nice.  Found out later that the date on the PSF reservation was wrong, and emailed the manager, Nick, from Japan to ask to cancel the reservation to avoid the deposit requirement.  This he did after two emails, and advised he was going to charge for the extra days parking, which was not a problem, until he charged us the wrong rate.  He would not answer follow up emails to explain the parking rate difference.  We contested the charges on our CC, submitting paperwork to prove the rate was wrong, and the excess parking charge was removed.  Not sure we would stay here again due to the manager not responding to our follow up emails and charging us the wrong rate for the excess parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r153697291-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>153697291</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Good property for an overnight stay.</t>
+  </si>
+  <si>
+    <t>Stayed here for one night on business in Humble.  No complaints, everything was pretty standard for a Sleep Inn.  Bare bones, but it did the job just fine.  I would definitely stay here again if I was in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r151380922-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>151380922</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>O.K. Stay near airport</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for an overnight between flights.  Reasonably new hotel, though check-in time was 3:00 p.m., we were able to check-in at 1:00 p.m.  We were using Choice Hotel points for this stay.  Options for eating at this rather remote location are Jack in the Box, Sonic, or Waffle House.  This Suites hotel had a large apartment size fridge, microwave, flat screen tv, room not small and not large.  Fitness room one elliptical, one treadmill, one bicycle, no weights or any other equipment, but was with a/c and tv.  Breakfast was uninspired, typical warm precooked eggs and sausage, yogurt, etc.  Very typical nowadays.  Overall this Sleep inn was acceptable, clean, staff friendly.  They used Rocket Parking van, under contract it appears, that also serviced a La Quinta on way to hotel and back.  Very timely, better than many hotel branded shuttles.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for an overnight between flights.  Reasonably new hotel, though check-in time was 3:00 p.m., we were able to check-in at 1:00 p.m.  We were using Choice Hotel points for this stay.  Options for eating at this rather remote location are Jack in the Box, Sonic, or Waffle House.  This Suites hotel had a large apartment size fridge, microwave, flat screen tv, room not small and not large.  Fitness room one elliptical, one treadmill, one bicycle, no weights or any other equipment, but was with a/c and tv.  Breakfast was uninspired, typical warm precooked eggs and sausage, yogurt, etc.  Very typical nowadays.  Overall this Sleep inn was acceptable, clean, staff friendly.  They used Rocket Parking van, under contract it appears, that also serviced a La Quinta on way to hotel and back.  Very timely, better than many hotel branded shuttles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r143352813-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>143352813</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>We stayed one night before our flight back to UK. Modern motel with well furnished, clean and spacious rooms providing great value for money. Very close to airport and a free shuttle is provided. Room rate includes a very good continental breakfast with cereal, bagels, muffins, waffles, sausage and scrambled egg. One of the best US motels we've stayed in at this price bracket. Highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r143344461-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>143344461</t>
+  </si>
+  <si>
+    <t>Bargain Price but not a great place</t>
+  </si>
+  <si>
+    <t>The check-in was pleasant and I got a free upgrade because of my Choice Privileges status. When I got to the room I noticed that a tile was missing as you enter the shower well, which can cause a person to trip or scrape your feet. This REALLY needs to be fixed. The coffee pot was dirty and there was no ironing board, but the room was clean, up to date and well decorated, not to mention a very comfy bed. The aquatics area was only OK, with a hot tub that had hot water but dirty or stained tile and grout. The pool was cleaner, but the water wasn't quite as clear as the hot tub. Other minuses was coffee, towels, shampoo and bath tissue that wasn't replenished the second day, only a few cable channels are offered (but 3 are HBO) and there was no express check-out. The place seems to be under staffed, with the desk clerk being responsible for check-outs and breakfast. And he either has a twin or he is working morning noon and night. Despite the negatives and low rating that I am giving the hotel, the rate is so good for the area, I will return to this place next month.MoreShow less</t>
+  </si>
+  <si>
+    <t>The check-in was pleasant and I got a free upgrade because of my Choice Privileges status. When I got to the room I noticed that a tile was missing as you enter the shower well, which can cause a person to trip or scrape your feet. This REALLY needs to be fixed. The coffee pot was dirty and there was no ironing board, but the room was clean, up to date and well decorated, not to mention a very comfy bed. The aquatics area was only OK, with a hot tub that had hot water but dirty or stained tile and grout. The pool was cleaner, but the water wasn't quite as clear as the hot tub. Other minuses was coffee, towels, shampoo and bath tissue that wasn't replenished the second day, only a few cable channels are offered (but 3 are HBO) and there was no express check-out. The place seems to be under staffed, with the desk clerk being responsible for check-outs and breakfast. And he either has a twin or he is working morning noon and night. Despite the negatives and low rating that I am giving the hotel, the rate is so good for the area, I will return to this place next month.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r142027789-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>142027789</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>Convenient and Nice Location</t>
+  </si>
+  <si>
+    <t>My husband and I just spent the night at this location prior to my early morning flight from George Bush Intercontinental.  I would have given this location 5 stars except for the kennel located directly behind the building.  When you make your reservation, remember to request and odd numbered room because it's the side opposite the kennel.  My husband and I stayed in room 102 (after requesting a room change from room 312 which smelled horribly of cigars!)  Right outside the window of room 102 were the runs for the dog kennel.  At 11pm someone came a put some of the dogs outside and they barked wildly for about 20 minutes.  Before 6am the next morning, the dogs were back out and barking again.  The room was wonderful except for dogs.  There was no noise from the road or the airport.  Breakfast was good and plentiful.  There was the normal fresh waffle (in the shape of the state of Texas), scrambled eggs and sausage links.  There was bagels, toast, some fresh fruit, cereal, juice, coffee, etc.  This location is a newer facility and the room was the largest room I've ever had @ a Sleep Inn.  This location was perfect for an overnight stay or for more nights if you need.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I just spent the night at this location prior to my early morning flight from George Bush Intercontinental.  I would have given this location 5 stars except for the kennel located directly behind the building.  When you make your reservation, remember to request and odd numbered room because it's the side opposite the kennel.  My husband and I stayed in room 102 (after requesting a room change from room 312 which smelled horribly of cigars!)  Right outside the window of room 102 were the runs for the dog kennel.  At 11pm someone came a put some of the dogs outside and they barked wildly for about 20 minutes.  Before 6am the next morning, the dogs were back out and barking again.  The room was wonderful except for dogs.  There was no noise from the road or the airport.  Breakfast was good and plentiful.  There was the normal fresh waffle (in the shape of the state of Texas), scrambled eggs and sausage links.  There was bagels, toast, some fresh fruit, cereal, juice, coffee, etc.  This location is a newer facility and the room was the largest room I've ever had @ a Sleep Inn.  This location was perfect for an overnight stay or for more nights if you need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r137292074-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>137292074</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>Great Location, Free Extended Parking</t>
+  </si>
+  <si>
+    <t>Very nice hotel in a great location for those travelling out of Bush IAH Airport. Free Shuttle runs 24 hours and Free Extended Parking up to 21 days right on their property. Don't forget to call when you get back, it is a 3rd party shuttle and does not run to the airport unless called. WE had a little suite that sleeps 4 for about $100.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r136067607-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>136067607</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Good stay... Great location</t>
+  </si>
+  <si>
+    <t>We stayed at the Sleep Inn &amp; Suites for the AAU National Jr. Olympics, held at Humble High School.  Great location, just 2 miles away from the track, so that was a pleasant drive with no real rushing to do daily.The hotel was decent, although my initial impression of the front desk staff was skeptical.  I asked that a broken wall plate be fixed, since we had a 3 y.o. with us.  That was never done.  Outside of the iffy first impression, i must say things weren't bad at all.  The room was very nice  with two QZ beds and a pull out sofa.  The bathroom was clean and updated.  The pool and hot tub were fine, small but good enough for my kids to swim and play.  Breakfast was just as advertised, continental w/ hot waffle maker, eggs and sausage. My only complaint would be not being told that after a certain time at night,the front doors are locked.  i only went outside to move my vehicle and literally was locked out... Another hotel patron let me in, since there was no one at the front desk (maybe in the back "working").MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We stayed at the Sleep Inn &amp; Suites for the AAU National Jr. Olympics, held at Humble High School.  Great location, just 2 miles away from the track, so that was a pleasant drive with no real rushing to do daily.The hotel was decent, although my initial impression of the front desk staff was skeptical.  I asked that a broken wall plate be fixed, since we had a 3 y.o. with us.  That was never done.  Outside of the iffy first impression, i must say things weren't bad at all.  The room was very nice  with two QZ beds and a pull out sofa.  The bathroom was clean and updated.  The pool and hot tub were fine, small but good enough for my kids to swim and play.  Breakfast was just as advertised, continental w/ hot waffle maker, eggs and sausage. My only complaint would be not being told that after a certain time at night,the front doors are locked.  i only went outside to move my vehicle and literally was locked out... Another hotel patron let me in, since there was no one at the front desk (maybe in the back "working").More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r135734686-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>135734686</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>One Night Stop</t>
+  </si>
+  <si>
+    <t>This hotel is definitely made for an overnight stop regarding the airport.  The bed is comfortable, it's  clean.  The service is lacking, no coffee left to go with the coffee pot, our toilet was clogged when we got there and we had to go get the plunger,  The desk clerk was nice.  There is a dog kennel on one side, but they go in at night and you can't hear them.  In waking distance, there is a Waffle House, Jack in the Box and a Sonic.  The shuttle service they use was on time and was prompt in getting us there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r129313373-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>129313373</t>
+  </si>
+  <si>
+    <t>05/03/2012</t>
+  </si>
+  <si>
+    <t>Welcome Surprise for a Weary Traveler</t>
+  </si>
+  <si>
+    <t>Due to a missed flight connection, I had to spend the night in Houston unexpectedly.  The Sleep Inn provided surprisingly comfortable, clean, and modern accomodations for a reasonable price.  They're very convenient to the Bush (IAH) Airport, and offer a 24 hour shuttle.  I merely needed a comfortable place to sleep for less than six hours, so I didn't have an opportunity to take advantage of property amenities like the pool, breakfast buffet, etc., but everything looked nice and inviting.  The staff was friendly and efficient in checking me in, the shuttle wasquick and hassle-free, and the room was very comfortable, clean and modern.  I think they gave me a more expensive suite than my rate would have provided (probably b/c it was available).  The spaciousness, the fridge/microwave, and pull-out sofa were all lost on someone who was there as briefly as myself, but they made for a nice, inviting room.  Again, I hadn't planned to spend the night in Houston at all, but if I ever find myself in similar circumstances, I'd happily stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Due to a missed flight connection, I had to spend the night in Houston unexpectedly.  The Sleep Inn provided surprisingly comfortable, clean, and modern accomodations for a reasonable price.  They're very convenient to the Bush (IAH) Airport, and offer a 24 hour shuttle.  I merely needed a comfortable place to sleep for less than six hours, so I didn't have an opportunity to take advantage of property amenities like the pool, breakfast buffet, etc., but everything looked nice and inviting.  The staff was friendly and efficient in checking me in, the shuttle wasquick and hassle-free, and the room was very comfortable, clean and modern.  I think they gave me a more expensive suite than my rate would have provided (probably b/c it was available).  The spaciousness, the fridge/microwave, and pull-out sofa were all lost on someone who was there as briefly as myself, but they made for a nice, inviting room.  Again, I hadn't planned to spend the night in Houston at all, but if I ever find myself in similar circumstances, I'd happily stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r129000512-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>129000512</t>
+  </si>
+  <si>
+    <t>04/28/2012</t>
+  </si>
+  <si>
+    <t>Great Little Airport Hotel</t>
+  </si>
+  <si>
+    <t>I was in Texas recently, family (4 persons) trip. We had an early morning (6:30 AM) flight on the return home. Had a 2 hour drive from where we were visiting to the IAH, so made more sense staying close to the airport the night before our return. Found a very good price on Expedia and reviews were favorable. The hotel and the room were all that was expected. The hotel was well maintained. The room was clean and comfortable. Our room was a good size with 2 queen beds (many others I'd looked at when choosing had double beds). Free Wi-Fi a bonus. There was a good size mini fridge with freezer as well. The hotel is only 3 floors but does have an elevator. There's also a business center, pool (I believe) and exercise room. Free breakfast doesn't start until 6 AM so can't comment on that. Also had a rented vehicle so didn't use their shuttle service, so can't comment on that either. It's just a 5 minute drive to the airport and a couple of gas stations and fast food places in the immediate vicinity. If you're from Texas, or for some other reason may be flying out of Houston and needing to park your car, there is a U-Park that also has a shuttle service right next door. The hotel belongs to the Choice group of hotels (I wasn't aware of this when booking). Not...I was in Texas recently, family (4 persons) trip. We had an early morning (6:30 AM) flight on the return home. Had a 2 hour drive from where we were visiting to the IAH, so made more sense staying close to the airport the night before our return. Found a very good price on Expedia and reviews were favorable. The hotel and the room were all that was expected. The hotel was well maintained. The room was clean and comfortable. Our room was a good size with 2 queen beds (many others I'd looked at when choosing had double beds). Free Wi-Fi a bonus. There was a good size mini fridge with freezer as well. The hotel is only 3 floors but does have an elevator. There's also a business center, pool (I believe) and exercise room. Free breakfast doesn't start until 6 AM so can't comment on that. Also had a rented vehicle so didn't use their shuttle service, so can't comment on that either. It's just a 5 minute drive to the airport and a couple of gas stations and fast food places in the immediate vicinity. If you're from Texas, or for some other reason may be flying out of Houston and needing to park your car, there is a U-Park that also has a shuttle service right next door. The hotel belongs to the Choice group of hotels (I wasn't aware of this when booking). Not luxurious but comfortable, convenient and also not hard on the pocketbook. I doubt you'd be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Texas recently, family (4 persons) trip. We had an early morning (6:30 AM) flight on the return home. Had a 2 hour drive from where we were visiting to the IAH, so made more sense staying close to the airport the night before our return. Found a very good price on Expedia and reviews were favorable. The hotel and the room were all that was expected. The hotel was well maintained. The room was clean and comfortable. Our room was a good size with 2 queen beds (many others I'd looked at when choosing had double beds). Free Wi-Fi a bonus. There was a good size mini fridge with freezer as well. The hotel is only 3 floors but does have an elevator. There's also a business center, pool (I believe) and exercise room. Free breakfast doesn't start until 6 AM so can't comment on that. Also had a rented vehicle so didn't use their shuttle service, so can't comment on that either. It's just a 5 minute drive to the airport and a couple of gas stations and fast food places in the immediate vicinity. If you're from Texas, or for some other reason may be flying out of Houston and needing to park your car, there is a U-Park that also has a shuttle service right next door. The hotel belongs to the Choice group of hotels (I wasn't aware of this when booking). Not...I was in Texas recently, family (4 persons) trip. We had an early morning (6:30 AM) flight on the return home. Had a 2 hour drive from where we were visiting to the IAH, so made more sense staying close to the airport the night before our return. Found a very good price on Expedia and reviews were favorable. The hotel and the room were all that was expected. The hotel was well maintained. The room was clean and comfortable. Our room was a good size with 2 queen beds (many others I'd looked at when choosing had double beds). Free Wi-Fi a bonus. There was a good size mini fridge with freezer as well. The hotel is only 3 floors but does have an elevator. There's also a business center, pool (I believe) and exercise room. Free breakfast doesn't start until 6 AM so can't comment on that. Also had a rented vehicle so didn't use their shuttle service, so can't comment on that either. It's just a 5 minute drive to the airport and a couple of gas stations and fast food places in the immediate vicinity. If you're from Texas, or for some other reason may be flying out of Houston and needing to park your car, there is a U-Park that also has a shuttle service right next door. The hotel belongs to the Choice group of hotels (I wasn't aware of this when booking). Not luxurious but comfortable, convenient and also not hard on the pocketbook. I doubt you'd be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r128461323-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>128461323</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>So clean, it has the "New Hotel" smell</t>
+  </si>
+  <si>
+    <t>We had a quick one night stay (April 15, 2012) at this hotel between our travels. The hotel offer free shuttle service to/from the airport (using "Rocket Parking" shuttle). The shuttle is prompt and the drivers are friendly and helpful.The check-in process is efficient and the front desk personnel is very friendly. There is guest 24-hr laundry facility (AND the detergent is free!!)The entire hotel is clean and well maintained. Guest room is modern, spaceous, clean and well maintained. It is hard to believe that this Sleep Inn is only rated 2 stars. It should be 5 stars!!There is a free continental breakfast with 24-hr hot coffee machine in the breakfast area.If you have no car, Jack-In-The-Box is right next door in walking distance.We checked out early morning and left well rested and happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a quick one night stay (April 15, 2012) at this hotel between our travels. The hotel offer free shuttle service to/from the airport (using "Rocket Parking" shuttle). The shuttle is prompt and the drivers are friendly and helpful.The check-in process is efficient and the front desk personnel is very friendly. There is guest 24-hr laundry facility (AND the detergent is free!!)The entire hotel is clean and well maintained. Guest room is modern, spaceous, clean and well maintained. It is hard to believe that this Sleep Inn is only rated 2 stars. It should be 5 stars!!There is a free continental breakfast with 24-hr hot coffee machine in the breakfast area.If you have no car, Jack-In-The-Box is right next door in walking distance.We checked out early morning and left well rested and happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r124828543-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>124828543</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Great hotel to stay.</t>
+  </si>
+  <si>
+    <t>Clean rooms, close to the airport, best service i've seen around houston.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r124255782-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>124255782</t>
+  </si>
+  <si>
+    <t>02/07/2012</t>
+  </si>
+  <si>
+    <t>Stale coffee and cold shower</t>
+  </si>
+  <si>
+    <t>First problem was that they were not listed on the hotel courtesy phones from IAH. They use an off-site parking shuttle service, which isn't obvious when you book. No worries, we got there eventually. Check-in was painless. Room was a decent size, but smelled strongly of room deodorizer. You know, the kind that you hang see hanging on rear-view mirrors of taxi cabs. It immediately touched off a sneezing fit. No worries, got through that too. Then I noticed that the coffee maker in the bathroom was still half full of stale coffee. Ugh! No worries, wasn't going to have coffee anyway. Did I mention that the only eateries (can't bring myself to call then restaurants) within walking distance were awful fast food joints? But that's not their fault, just thought I'd mention it in case you were hoping for fine dining.  What broke the camel's back was the cold showers.  Three people in succession, waiting for the water to get hot, giving up, and having a cold shower instead. Not warm, not even tepid. Not ice cold, but cold!  When we brought it up with the front desk on check-out, he said we had to run the water for a good 5 minutes to get it hot. I guess 3 people taking cold showers wasn't enough time. I will say that the hotel was convenienty located, and the rate was inexpensive. I generally set my expectations very low when...First problem was that they were not listed on the hotel courtesy phones from IAH. They use an off-site parking shuttle service, which isn't obvious when you book. No worries, we got there eventually. Check-in was painless. Room was a decent size, but smelled strongly of room deodorizer. You know, the kind that you hang see hanging on rear-view mirrors of taxi cabs. It immediately touched off a sneezing fit. No worries, got through that too. Then I noticed that the coffee maker in the bathroom was still half full of stale coffee. Ugh! No worries, wasn't going to have coffee anyway. Did I mention that the only eateries (can't bring myself to call then restaurants) within walking distance were awful fast food joints? But that's not their fault, just thought I'd mention it in case you were hoping for fine dining.  What broke the camel's back was the cold showers.  Three people in succession, waiting for the water to get hot, giving up, and having a cold shower instead. Not warm, not even tepid. Not ice cold, but cold!  When we brought it up with the front desk on check-out, he said we had to run the water for a good 5 minutes to get it hot. I guess 3 people taking cold showers wasn't enough time. I will say that the hotel was convenienty located, and the rate was inexpensive. I generally set my expectations very low when staying at a budget airport hotel, but this one didn't even come close.MoreShow less</t>
+  </si>
+  <si>
+    <t>First problem was that they were not listed on the hotel courtesy phones from IAH. They use an off-site parking shuttle service, which isn't obvious when you book. No worries, we got there eventually. Check-in was painless. Room was a decent size, but smelled strongly of room deodorizer. You know, the kind that you hang see hanging on rear-view mirrors of taxi cabs. It immediately touched off a sneezing fit. No worries, got through that too. Then I noticed that the coffee maker in the bathroom was still half full of stale coffee. Ugh! No worries, wasn't going to have coffee anyway. Did I mention that the only eateries (can't bring myself to call then restaurants) within walking distance were awful fast food joints? But that's not their fault, just thought I'd mention it in case you were hoping for fine dining.  What broke the camel's back was the cold showers.  Three people in succession, waiting for the water to get hot, giving up, and having a cold shower instead. Not warm, not even tepid. Not ice cold, but cold!  When we brought it up with the front desk on check-out, he said we had to run the water for a good 5 minutes to get it hot. I guess 3 people taking cold showers wasn't enough time. I will say that the hotel was convenienty located, and the rate was inexpensive. I generally set my expectations very low when...First problem was that they were not listed on the hotel courtesy phones from IAH. They use an off-site parking shuttle service, which isn't obvious when you book. No worries, we got there eventually. Check-in was painless. Room was a decent size, but smelled strongly of room deodorizer. You know, the kind that you hang see hanging on rear-view mirrors of taxi cabs. It immediately touched off a sneezing fit. No worries, got through that too. Then I noticed that the coffee maker in the bathroom was still half full of stale coffee. Ugh! No worries, wasn't going to have coffee anyway. Did I mention that the only eateries (can't bring myself to call then restaurants) within walking distance were awful fast food joints? But that's not their fault, just thought I'd mention it in case you were hoping for fine dining.  What broke the camel's back was the cold showers.  Three people in succession, waiting for the water to get hot, giving up, and having a cold shower instead. Not warm, not even tepid. Not ice cold, but cold!  When we brought it up with the front desk on check-out, he said we had to run the water for a good 5 minutes to get it hot. I guess 3 people taking cold showers wasn't enough time. I will say that the hotel was convenienty located, and the rate was inexpensive. I generally set my expectations very low when staying at a budget airport hotel, but this one didn't even come close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r123939332-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>123939332</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Very nice hotel, but bed bugs</t>
+  </si>
+  <si>
+    <t>Stayed at this place on Jan 23, 2012.  Very nice new hotel close to the air port.  The staff was very helpful, but on waking up we found bed bugs.  Will be a great place to stay if they ever get rid of those critters.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r117237304-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>117237304</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>Very Nice and Clean</t>
+  </si>
+  <si>
+    <t>We stayed here on Aug 18, 2011 because our flight was canceled.The guy at the front dest was very nice and helpful as we were on our way home from vacation we had very litte belongings in our carry on. They helped us out with a razor and toothbrushes and a comb. The room and bed were very nice  and this motel was spotless. the breakfest was good, saugage, eggs and waffels. Would stay again if we have a lay over or canceled flight.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d1878577-r86514861-Sleep_Inn_Suites_Bush_Intercontinental_Airport_IAH_East-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>86514861</t>
+  </si>
+  <si>
+    <t>11/09/2010</t>
+  </si>
+  <si>
+    <t>The most personal and helpful staff EVER!  Give 'em a try.</t>
+  </si>
+  <si>
+    <t>The ownership and management of this newly constructed budget friendly, comfortable, convenient, quiet, mid-size property was beyond belief.  I think ownership was on the front line at least 70% of the time and never more than a phone call away (assuming we needed something at 2 a.m.  The guest rooms were spacious, exceedingly well appointed and comfortable, the bathrooms are modern and brilliant!  For a property being so close to a major airport, the rooms were amazingly quiet--- I don't remember hearing anything unless the window was open or we were outside.   The shuttle service was prompt and friendly.The meeting room was perfect!  The cabinets and serving bar were very helpful.  All of that pales in comparison to the ownership's interest and responsiveness for our event.  Anything they could do to help was first on their mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>The ownership and management of this newly constructed budget friendly, comfortable, convenient, quiet, mid-size property was beyond belief.  I think ownership was on the front line at least 70% of the time and never more than a phone call away (assuming we needed something at 2 a.m.  The guest rooms were spacious, exceedingly well appointed and comfortable, the bathrooms are modern and brilliant!  For a property being so close to a major airport, the rooms were amazingly quiet--- I don't remember hearing anything unless the window was open or we were outside.   The shuttle service was prompt and friendly.The meeting room was perfect!  The cabinets and serving bar were very helpful.  All of that pales in comparison to the ownership's interest and responsiveness for our event.  Anything they could do to help was first on their mind.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2480,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2512,5955 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>175</v>
+      </c>
+      <c r="X21" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>190</v>
+      </c>
+      <c r="X23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>199</v>
+      </c>
+      <c r="X24" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>217</v>
+      </c>
+      <c r="X26" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>217</v>
+      </c>
+      <c r="X27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>217</v>
+      </c>
+      <c r="X29" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>216</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>217</v>
+      </c>
+      <c r="X30" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>250</v>
+      </c>
+      <c r="O31" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>217</v>
+      </c>
+      <c r="X31" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>258</v>
+      </c>
+      <c r="X32" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>266</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X33" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>276</v>
+      </c>
+      <c r="X34" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" t="s">
+        <v>283</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>275</v>
+      </c>
+      <c r="O35" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>275</v>
+      </c>
+      <c r="O36" t="s">
+        <v>86</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>290</v>
+      </c>
+      <c r="X36" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s">
+        <v>297</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J39" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>317</v>
+      </c>
+      <c r="X40" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" t="s">
+        <v>322</v>
+      </c>
+      <c r="K41" t="s">
+        <v>323</v>
+      </c>
+      <c r="L41" t="s">
+        <v>324</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>250</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>325</v>
+      </c>
+      <c r="X41" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s">
+        <v>332</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>335</v>
+      </c>
+      <c r="J43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" t="s">
+        <v>337</v>
+      </c>
+      <c r="L43" t="s">
+        <v>338</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>339</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>325</v>
+      </c>
+      <c r="X43" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" t="s">
+        <v>343</v>
+      </c>
+      <c r="K44" t="s">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s">
+        <v>345</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>346</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>347</v>
+      </c>
+      <c r="X44" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>351</v>
+      </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s">
+        <v>354</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>346</v>
+      </c>
+      <c r="O45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>355</v>
+      </c>
+      <c r="X45" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>358</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>359</v>
+      </c>
+      <c r="J46" t="s">
+        <v>360</v>
+      </c>
+      <c r="K46" t="s">
+        <v>361</v>
+      </c>
+      <c r="L46" t="s">
+        <v>362</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>346</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>363</v>
+      </c>
+      <c r="X46" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>367</v>
+      </c>
+      <c r="J47" t="s">
+        <v>368</v>
+      </c>
+      <c r="K47" t="s">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s">
+        <v>370</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>371</v>
+      </c>
+      <c r="X47" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>378</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>371</v>
+      </c>
+      <c r="X48" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>382</v>
+      </c>
+      <c r="J49" t="s">
+        <v>383</v>
+      </c>
+      <c r="K49" t="s">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s">
+        <v>385</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>386</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>387</v>
+      </c>
+      <c r="X49" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>390</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>391</v>
+      </c>
+      <c r="J50" t="s">
+        <v>392</v>
+      </c>
+      <c r="K50" t="s">
+        <v>393</v>
+      </c>
+      <c r="L50" t="s">
+        <v>394</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>386</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>395</v>
+      </c>
+      <c r="X50" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>398</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>399</v>
+      </c>
+      <c r="J51" t="s">
+        <v>400</v>
+      </c>
+      <c r="K51" t="s">
+        <v>401</v>
+      </c>
+      <c r="L51" t="s">
+        <v>402</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>403</v>
+      </c>
+      <c r="X51" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>412</v>
+      </c>
+      <c r="X52" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" t="s">
+        <v>418</v>
+      </c>
+      <c r="L53" t="s">
+        <v>419</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>411</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>420</v>
+      </c>
+      <c r="X53" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>423</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J54" t="s">
+        <v>417</v>
+      </c>
+      <c r="K54" t="s">
+        <v>425</v>
+      </c>
+      <c r="L54" t="s">
+        <v>426</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>411</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>420</v>
+      </c>
+      <c r="X54" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>428</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>429</v>
+      </c>
+      <c r="J55" t="s">
+        <v>430</v>
+      </c>
+      <c r="K55" t="s">
+        <v>431</v>
+      </c>
+      <c r="L55" t="s">
+        <v>432</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>433</v>
+      </c>
+      <c r="O55" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>434</v>
+      </c>
+      <c r="X55" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" t="s">
+        <v>440</v>
+      </c>
+      <c r="L56" t="s">
+        <v>441</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>442</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>443</v>
+      </c>
+      <c r="X56" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>446</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>447</v>
+      </c>
+      <c r="J57" t="s">
+        <v>448</v>
+      </c>
+      <c r="K57" t="s">
+        <v>449</v>
+      </c>
+      <c r="L57" t="s">
+        <v>450</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>451</v>
+      </c>
+      <c r="O57" t="s">
+        <v>67</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>443</v>
+      </c>
+      <c r="X57" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>453</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>454</v>
+      </c>
+      <c r="J58" t="s">
+        <v>455</v>
+      </c>
+      <c r="K58" t="s">
+        <v>456</v>
+      </c>
+      <c r="L58" t="s">
+        <v>457</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>451</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>443</v>
+      </c>
+      <c r="X58" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>459</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>460</v>
+      </c>
+      <c r="J59" t="s">
+        <v>461</v>
+      </c>
+      <c r="K59" t="s">
+        <v>462</v>
+      </c>
+      <c r="L59" t="s">
+        <v>463</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>464</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>465</v>
+      </c>
+      <c r="X59" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>465</v>
+      </c>
+      <c r="X60" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>475</v>
+      </c>
+      <c r="J61" t="s">
+        <v>476</v>
+      </c>
+      <c r="K61" t="s">
+        <v>477</v>
+      </c>
+      <c r="L61" t="s">
+        <v>478</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>464</v>
+      </c>
+      <c r="O61" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>465</v>
+      </c>
+      <c r="X61" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>480</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>481</v>
+      </c>
+      <c r="J62" t="s">
+        <v>482</v>
+      </c>
+      <c r="K62" t="s">
+        <v>483</v>
+      </c>
+      <c r="L62" t="s">
+        <v>484</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>485</v>
+      </c>
+      <c r="O62" t="s">
+        <v>86</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>465</v>
+      </c>
+      <c r="X62" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>487</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>488</v>
+      </c>
+      <c r="J63" t="s">
+        <v>489</v>
+      </c>
+      <c r="K63" t="s">
+        <v>490</v>
+      </c>
+      <c r="L63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>485</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>465</v>
+      </c>
+      <c r="X63" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>493</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>494</v>
+      </c>
+      <c r="J64" t="s">
+        <v>495</v>
+      </c>
+      <c r="K64" t="s">
+        <v>496</v>
+      </c>
+      <c r="L64" t="s">
+        <v>497</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>485</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>499</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>500</v>
+      </c>
+      <c r="J65" t="s">
+        <v>501</v>
+      </c>
+      <c r="K65" t="s">
+        <v>502</v>
+      </c>
+      <c r="L65" t="s">
+        <v>503</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>504</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>505</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>506</v>
+      </c>
+      <c r="J66" t="s">
+        <v>507</v>
+      </c>
+      <c r="K66" t="s">
+        <v>508</v>
+      </c>
+      <c r="L66" t="s">
+        <v>509</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>510</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>511</v>
+      </c>
+      <c r="J67" t="s">
+        <v>512</v>
+      </c>
+      <c r="K67" t="s">
+        <v>513</v>
+      </c>
+      <c r="L67" t="s">
+        <v>514</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>515</v>
+      </c>
+      <c r="O67" t="s">
+        <v>86</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>516</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>517</v>
+      </c>
+      <c r="J68" t="s">
+        <v>518</v>
+      </c>
+      <c r="K68" t="s">
+        <v>519</v>
+      </c>
+      <c r="L68" t="s">
+        <v>520</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>521</v>
+      </c>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>523</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>524</v>
+      </c>
+      <c r="J69" t="s">
+        <v>525</v>
+      </c>
+      <c r="K69" t="s">
+        <v>526</v>
+      </c>
+      <c r="L69" t="s">
+        <v>527</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>515</v>
+      </c>
+      <c r="O69" t="s">
+        <v>67</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>529</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>530</v>
+      </c>
+      <c r="J70" t="s">
+        <v>531</v>
+      </c>
+      <c r="K70" t="s">
+        <v>532</v>
+      </c>
+      <c r="L70" t="s">
+        <v>533</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>521</v>
+      </c>
+      <c r="O70" t="s">
+        <v>67</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>535</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>536</v>
+      </c>
+      <c r="J71" t="s">
+        <v>537</v>
+      </c>
+      <c r="K71" t="s">
+        <v>538</v>
+      </c>
+      <c r="L71" t="s">
+        <v>539</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>540</v>
+      </c>
+      <c r="O71" t="s">
+        <v>121</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>542</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>543</v>
+      </c>
+      <c r="J72" t="s">
+        <v>544</v>
+      </c>
+      <c r="K72" t="s">
+        <v>545</v>
+      </c>
+      <c r="L72" t="s">
+        <v>546</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>547</v>
+      </c>
+      <c r="O72" t="s">
+        <v>121</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>548</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>549</v>
+      </c>
+      <c r="J73" t="s">
+        <v>550</v>
+      </c>
+      <c r="K73" t="s">
+        <v>551</v>
+      </c>
+      <c r="L73" t="s">
+        <v>552</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>553</v>
+      </c>
+      <c r="O73" t="s">
+        <v>67</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>555</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>556</v>
+      </c>
+      <c r="J74" t="s">
+        <v>557</v>
+      </c>
+      <c r="K74" t="s">
+        <v>558</v>
+      </c>
+      <c r="L74" t="s">
+        <v>559</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>560</v>
+      </c>
+      <c r="O74" t="s">
+        <v>86</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>562</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>563</v>
+      </c>
+      <c r="J75" t="s">
+        <v>564</v>
+      </c>
+      <c r="K75" t="s">
+        <v>565</v>
+      </c>
+      <c r="L75" t="s">
+        <v>566</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>567</v>
+      </c>
+      <c r="O75" t="s">
+        <v>121</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>569</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>570</v>
+      </c>
+      <c r="J76" t="s">
+        <v>571</v>
+      </c>
+      <c r="K76" t="s">
+        <v>572</v>
+      </c>
+      <c r="L76" t="s">
+        <v>573</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>567</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>575</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>576</v>
+      </c>
+      <c r="J77" t="s">
+        <v>577</v>
+      </c>
+      <c r="K77" t="s">
+        <v>578</v>
+      </c>
+      <c r="L77" t="s">
+        <v>579</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>560</v>
+      </c>
+      <c r="O77" t="s">
+        <v>67</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>582</v>
+      </c>
+      <c r="J78" t="s">
+        <v>583</v>
+      </c>
+      <c r="K78" t="s">
+        <v>584</v>
+      </c>
+      <c r="L78" t="s">
+        <v>585</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>560</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>586</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>587</v>
+      </c>
+      <c r="J79" t="s">
+        <v>588</v>
+      </c>
+      <c r="K79" t="s">
+        <v>589</v>
+      </c>
+      <c r="L79" t="s">
+        <v>590</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>591</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>593</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>594</v>
+      </c>
+      <c r="J80" t="s">
+        <v>595</v>
+      </c>
+      <c r="K80" t="s">
+        <v>596</v>
+      </c>
+      <c r="L80" t="s">
+        <v>597</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>547</v>
+      </c>
+      <c r="O80" t="s">
+        <v>67</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>598</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>599</v>
+      </c>
+      <c r="J81" t="s">
+        <v>595</v>
+      </c>
+      <c r="K81" t="s">
+        <v>600</v>
+      </c>
+      <c r="L81" t="s">
+        <v>601</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>547</v>
+      </c>
+      <c r="O81" t="s">
+        <v>86</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>603</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>604</v>
+      </c>
+      <c r="J82" t="s">
+        <v>605</v>
+      </c>
+      <c r="K82" t="s">
+        <v>606</v>
+      </c>
+      <c r="L82" t="s">
+        <v>607</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>547</v>
+      </c>
+      <c r="O82" t="s">
+        <v>67</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>609</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>610</v>
+      </c>
+      <c r="J83" t="s">
+        <v>611</v>
+      </c>
+      <c r="K83" t="s">
+        <v>612</v>
+      </c>
+      <c r="L83" t="s">
+        <v>613</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>614</v>
+      </c>
+      <c r="O83" t="s">
+        <v>121</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>615</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>616</v>
+      </c>
+      <c r="J84" t="s">
+        <v>617</v>
+      </c>
+      <c r="K84" t="s">
+        <v>618</v>
+      </c>
+      <c r="L84" t="s">
+        <v>619</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>620</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>622</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>623</v>
+      </c>
+      <c r="J85" t="s">
+        <v>624</v>
+      </c>
+      <c r="K85" t="s">
+        <v>625</v>
+      </c>
+      <c r="L85" t="s">
+        <v>626</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>620</v>
+      </c>
+      <c r="O85" t="s">
+        <v>67</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>627</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>628</v>
+      </c>
+      <c r="J86" t="s">
+        <v>629</v>
+      </c>
+      <c r="K86" t="s">
+        <v>630</v>
+      </c>
+      <c r="L86" t="s">
+        <v>631</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>632</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>634</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>635</v>
+      </c>
+      <c r="J87" t="s">
+        <v>636</v>
+      </c>
+      <c r="K87" t="s">
+        <v>637</v>
+      </c>
+      <c r="L87" t="s">
+        <v>638</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>632</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>640</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>641</v>
+      </c>
+      <c r="J88" t="s">
+        <v>642</v>
+      </c>
+      <c r="K88" t="s">
+        <v>643</v>
+      </c>
+      <c r="L88" t="s">
+        <v>644</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>632</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>646</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>647</v>
+      </c>
+      <c r="J89" t="s">
+        <v>648</v>
+      </c>
+      <c r="K89" t="s">
+        <v>649</v>
+      </c>
+      <c r="L89" t="s">
+        <v>650</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>651</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>652</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>653</v>
+      </c>
+      <c r="J90" t="s">
+        <v>654</v>
+      </c>
+      <c r="K90" t="s">
+        <v>655</v>
+      </c>
+      <c r="L90" t="s">
+        <v>656</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>651</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>658</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>659</v>
+      </c>
+      <c r="J91" t="s">
+        <v>660</v>
+      </c>
+      <c r="K91" t="s">
+        <v>661</v>
+      </c>
+      <c r="L91" t="s">
+        <v>662</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>663</v>
+      </c>
+      <c r="O91" t="s">
+        <v>121</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>664</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>665</v>
+      </c>
+      <c r="J92" t="s">
+        <v>666</v>
+      </c>
+      <c r="K92" t="s">
+        <v>667</v>
+      </c>
+      <c r="L92" t="s">
+        <v>668</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>669</v>
+      </c>
+      <c r="O92" t="s">
+        <v>67</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59822</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>670</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>671</v>
+      </c>
+      <c r="J93" t="s">
+        <v>672</v>
+      </c>
+      <c r="K93" t="s">
+        <v>673</v>
+      </c>
+      <c r="L93" t="s">
+        <v>674</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>675</v>
+      </c>
+      <c r="O93" t="s">
+        <v>86</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
